--- a/raw_data/WL_BSi_all.xlsx
+++ b/raw_data/WL_BSi_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\1r-S5jPa9KzL2cJXTVseFiknRKoMTF35v\Wilderness Lakes\BSi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C5F28-9F16-452A-AB48-0A687DEFC79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80C6A1-40C0-43AC-B5AD-569463C0F743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="680" windowWidth="14580" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="14580" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="for R" sheetId="5" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="30">
   <si>
     <t>lake</t>
   </si>
@@ -260,10 +260,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,12 +311,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF00FF"/>
-      <name val="Geneva"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -351,20 +347,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arimo"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF00FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -419,9 +404,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -437,29 +422,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB27B38-0FFA-4F9F-9C64-ED98FBDB241D}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -690,2343 +687,3625 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
+        <v>281.13725539064689</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2019.8169151173799</v>
+      </c>
+      <c r="E2" s="24">
+        <v>2.87860600192359E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <f>(B2/1000)*E2</f>
+        <v>8.092833907318412E-3</v>
+      </c>
+      <c r="G2" s="11">
+        <f>B2/10</f>
+        <v>28.113725539064689</v>
+      </c>
+      <c r="H2" s="11">
+        <f>F2*1000</f>
+        <v>8.0928339073184112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5">
+      <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9">
         <v>208.01185210570458</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C3" s="10">
         <v>9</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D3" s="21">
         <v>2013</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E3" s="25">
         <v>2.58E-2</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F66" si="0">(B3/1000)*E3</f>
         <v>5.3667057843271781E-3</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G66" si="1">B3/10</f>
         <v>20.801185210570459</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H66" si="2">F3*1000</f>
         <v>5.3667057843271779</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5">
-      <c r="A3" s="20" t="s">
+    <row r="4" spans="1:8" ht="15.5">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B4" s="9">
+        <v>186.44161942404213</v>
+      </c>
+      <c r="C4" s="10">
+        <v>11</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2009.12511862568</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2.5817954191076301E-2</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8135411896000017E-3</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="1"/>
+        <v>18.644161942404214</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="2"/>
+        <v>4.8135411896000013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5">
+      <c r="A5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
         <v>267.35650113088025</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C5" s="10">
         <v>15</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D5" s="21">
         <v>2002.6</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E5" s="25">
         <v>2.53E-2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
         <v>6.7641194786112694E-3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G5" s="11">
+        <f t="shared" si="1"/>
         <v>26.735650113088024</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H5" s="11">
+        <f t="shared" si="2"/>
         <v>6.7641194786112697</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.5">
-      <c r="A4" s="20" t="s">
+    <row r="6" spans="1:8" ht="15.5">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B6" s="9">
+        <v>268.37518024734266</v>
+      </c>
+      <c r="C6" s="10">
+        <v>17</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1998.21534418225</v>
+      </c>
+      <c r="E6" s="24">
+        <v>2.4903092973931399E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6833720655951716E-3</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="1"/>
+        <v>26.837518024734266</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="2"/>
+        <v>6.6833720655951714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.5">
+      <c r="A7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9">
         <v>247.77447740928415</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C7" s="10">
         <v>19</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D7" s="21">
         <v>1995.1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E7" s="25">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
         <v>6.5908010990869586E-3</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G7" s="11">
+        <f t="shared" si="1"/>
         <v>24.777447740928416</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H7" s="11">
+        <f t="shared" si="2"/>
         <v>6.590801099086959</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5">
-      <c r="A5" s="20" t="s">
+    <row r="8" spans="1:8" ht="15.5">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B8" s="9">
+        <v>247.34325002800389</v>
+      </c>
+      <c r="C8" s="10">
+        <v>21</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1990.1437955430199</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2.5139081061177002E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2179820123889609E-3</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="1"/>
+        <v>24.734325002800389</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="2"/>
+        <v>6.2179820123889611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5">
+      <c r="A9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9">
+        <v>258.54665211077258</v>
+      </c>
+      <c r="C9" s="10">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1985.6767272852301</v>
+      </c>
+      <c r="E9" s="24">
+        <v>2.56762598318734E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6385110182571767E-3</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>25.854665211077258</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="2"/>
+        <v>6.6385110182571765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5">
+      <c r="A10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9">
         <v>278.20629783609297</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C10" s="10">
         <v>25</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D10" s="21">
         <v>1982</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E10" s="25">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
         <v>6.3431035906629197E-3</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
         <v>27.820629783609299</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H10" s="11">
+        <f t="shared" si="2"/>
         <v>6.3431035906629196</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.5">
-      <c r="A6" s="20" t="s">
+    <row r="11" spans="1:8" ht="15.5">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B11" s="9">
+        <v>257.23248393550261</v>
+      </c>
+      <c r="C11" s="10">
+        <v>27</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1976.3739120666701</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2.7134373955111899E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9798424125082428E-3</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="1"/>
+        <v>25.723248393550261</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="2"/>
+        <v>6.9798424125082432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.5">
+      <c r="A12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
         <v>239.9972334231974</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C12" s="10">
         <v>29</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D12" s="21">
         <v>1970.3</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E12" s="25">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
         <v>4.7519452217793089E-3</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G12" s="11">
+        <f t="shared" si="1"/>
         <v>23.99972334231974</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H12" s="11">
+        <f t="shared" si="2"/>
         <v>4.7519452217793088</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5">
-      <c r="A7" s="20" t="s">
+    <row r="13" spans="1:8" ht="15.5">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B13" s="9">
         <v>218.16528444556539</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C13" s="10">
         <v>35</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D13" s="21">
         <v>1958.1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E13" s="25">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
         <v>7.8103171831512405E-3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G13" s="11">
+        <f t="shared" si="1"/>
         <v>21.816528444556539</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H13" s="11">
+        <f t="shared" si="2"/>
         <v>7.8103171831512404</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5">
-      <c r="A8" s="21" t="s">
+    <row r="14" spans="1:8" ht="15.5">
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>247.53336115266879</v>
+      </c>
+      <c r="C14" s="10">
+        <v>40</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1947.2489566732299</v>
+      </c>
+      <c r="E14" s="24">
+        <v>3.2379697784597303E-2</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>8.0150554257289938E-3</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="1"/>
+        <v>24.75333611526688</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0150554257289937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5">
+      <c r="A15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>214.58869952261358</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1939.2817264529599</v>
+      </c>
+      <c r="E15" s="24">
+        <v>3.5342835972958099E-2</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>7.5841732088781236E-3</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="1"/>
+        <v>21.45886995226136</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="2"/>
+        <v>7.5841732088781235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.5">
+      <c r="A16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9">
+        <v>211.56575279304889</v>
+      </c>
+      <c r="C16" s="10">
+        <v>48</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1932.0811575376699</v>
+      </c>
+      <c r="E16" s="24">
+        <v>3.6768104599737603E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>7.7788717284170495E-3</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="1"/>
+        <v>21.156575279304889</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="2"/>
+        <v>7.7788717284170499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.5">
+      <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B17" s="20">
         <v>225.31666666666669</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C17" s="16">
         <v>2</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D17" s="19">
         <v>2018.6</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E17" s="24">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
         <v>6.0159550000000008E-3</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G17" s="11">
+        <f>B17/10</f>
         <v>22.53166666666667</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H17" s="11">
+        <f t="shared" si="2"/>
         <v>6.0159550000000008</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5">
-      <c r="A9" s="21" t="s">
+    <row r="18" spans="1:8" ht="15.5">
+      <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B18" s="20">
         <v>217.31</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C18" s="16">
         <v>4</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D18" s="19">
         <v>2012.9</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E18" s="24">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
         <v>7.1277680000000005E-3</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G18" s="11">
+        <f t="shared" si="1"/>
         <v>21.731000000000002</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H18" s="11">
+        <f t="shared" si="2"/>
         <v>7.1277680000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5">
-      <c r="A10" s="21" t="s">
+    <row r="19" spans="1:8" ht="15.5">
+      <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B19" s="20">
         <v>198.3066666666667</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C19" s="16">
         <v>6</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D19" s="19">
         <v>2005.5</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E19" s="24">
         <v>2.92E-2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
         <v>5.790554666666667E-3</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
         <v>19.830666666666669</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H19" s="11">
+        <f t="shared" si="2"/>
         <v>5.790554666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5">
-      <c r="A11" s="21" t="s">
+    <row r="20" spans="1:8" ht="15.5">
+      <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B20" s="20">
         <v>188.71</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C20" s="16">
         <v>8</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D20" s="19">
         <v>1998.1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E20" s="24">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
         <v>6.5104950000000007E-3</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G20" s="11">
+        <f t="shared" si="1"/>
         <v>18.871000000000002</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H20" s="11">
+        <f t="shared" si="2"/>
         <v>6.5104950000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.5">
-      <c r="A12" s="21" t="s">
+    <row r="21" spans="1:8" ht="15.5">
+      <c r="A21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B21" s="20">
         <v>192.87000000000006</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C21" s="16">
         <v>10</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D21" s="19">
         <v>1989.9</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E21" s="24">
         <v>0.03</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
         <v>5.7861000000000015E-3</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G21" s="11">
+        <f t="shared" si="1"/>
         <v>19.287000000000006</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H21" s="11">
+        <f t="shared" si="2"/>
         <v>5.7861000000000011</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.5">
-      <c r="A13" s="21" t="s">
+    <row r="22" spans="1:8" ht="15.5">
+      <c r="A22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B22" s="20">
         <v>219.85666666666665</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C22" s="16">
         <v>12</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D22" s="19">
         <v>1981.6</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E22" s="24">
         <v>3.15E-2</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
         <v>6.9254849999999995E-3</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G22" s="11">
+        <f t="shared" si="1"/>
         <v>21.985666666666667</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H22" s="11">
+        <f t="shared" si="2"/>
         <v>6.9254849999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5">
-      <c r="A14" s="21" t="s">
+    <row r="23" spans="1:8" ht="15.5">
+      <c r="A23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B23" s="20">
         <v>203.95666666666668</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C23" s="16">
         <v>13</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D23" s="19">
         <v>1976.9</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E23" s="24">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
         <v>5.6903910000000004E-3</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G23" s="11">
+        <f t="shared" si="1"/>
         <v>20.395666666666667</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H23" s="11">
+        <f t="shared" si="2"/>
         <v>5.690391</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.5">
-      <c r="A15" s="21" t="s">
+    <row r="24" spans="1:8" ht="15.5">
+      <c r="A24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B24" s="20">
         <v>221.78666666666663</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C24" s="16">
         <v>15</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D24" s="19">
         <v>1964.2</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E24" s="24">
         <v>1.95E-2</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F24" s="11">
+        <f t="shared" si="0"/>
         <v>4.3248399999999991E-3</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G24" s="11">
+        <f t="shared" si="1"/>
         <v>22.178666666666665</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H24" s="11">
+        <f t="shared" si="2"/>
         <v>4.3248399999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.5">
-      <c r="A16" s="21" t="s">
+    <row r="25" spans="1:8" ht="15.5">
+      <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B25" s="20">
         <v>221.43333333333331</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C25" s="16">
         <v>17</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D25" s="19">
         <v>1952</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E25" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
         <v>5.5358333333333336E-3</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G25" s="11">
+        <f t="shared" si="1"/>
         <v>22.143333333333331</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H25" s="11">
+        <f t="shared" si="2"/>
         <v>5.5358333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.5">
-      <c r="A17" s="21" t="s">
+    <row r="26" spans="1:8" ht="15.5">
+      <c r="A26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B26" s="20">
         <v>203.48333333333332</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C26" s="16">
         <v>18</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D26" s="19">
         <v>1945.3</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E26" s="24">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
         <v>4.598723333333333E-3</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G26" s="11">
+        <f t="shared" si="1"/>
         <v>20.348333333333333</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H26" s="11">
+        <f t="shared" si="2"/>
         <v>4.5987233333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.5">
-      <c r="A18" s="21" t="s">
+    <row r="27" spans="1:8" ht="15.5">
+      <c r="A27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B27" s="20">
         <v>228.22666666666669</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C27" s="16">
         <v>20</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D27" s="19">
         <v>1932.8</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E27" s="24">
         <v>2.64E-2</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
         <v>6.0251840000000003E-3</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G27" s="11">
+        <f t="shared" si="1"/>
         <v>22.82266666666667</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H27" s="11">
+        <f t="shared" si="2"/>
         <v>6.0251840000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.5">
-      <c r="A19" s="21" t="s">
+    <row r="28" spans="1:8" ht="15.5">
+      <c r="A28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B28" s="20">
         <v>202.65</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C28" s="16">
         <v>22</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D28" s="19">
         <v>1920.9</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E28" s="24">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
         <v>6.5253300000000002E-3</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G28" s="11">
+        <f t="shared" si="1"/>
         <v>20.265000000000001</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H28" s="11">
+        <f t="shared" si="2"/>
         <v>6.5253300000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.5">
-      <c r="A20" s="21" t="s">
+    <row r="29" spans="1:8" ht="15.5">
+      <c r="A29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B29" s="20">
         <v>196.16666666666666</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C29" s="16">
         <v>24</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D29" s="19">
         <v>1908.9</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E29" s="24">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
         <v>5.6495999999999994E-3</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G29" s="11">
+        <f t="shared" si="1"/>
         <v>19.616666666666667</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H29" s="11">
+        <f t="shared" si="2"/>
         <v>5.6495999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.5">
-      <c r="A21" s="21" t="s">
+    <row r="30" spans="1:8" ht="15.5">
+      <c r="A30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B30" s="20">
         <v>206.18666666666664</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C30" s="16">
         <v>26</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D30" s="19">
         <v>1896.2</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E30" s="24">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F30" s="11">
+        <f t="shared" si="0"/>
         <v>5.3608533333333319E-3</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G30" s="11">
+        <f t="shared" si="1"/>
         <v>20.618666666666662</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H30" s="11">
+        <f t="shared" si="2"/>
         <v>5.3608533333333321</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.5">
-      <c r="A22" s="21" t="s">
+    <row r="31" spans="1:8" ht="15.5">
+      <c r="A31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B31" s="20">
         <v>188.84333333333333</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C31" s="16">
         <v>29</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D31" s="19">
         <v>1875.2</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E31" s="24">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F31" s="11">
+        <f t="shared" si="0"/>
         <v>4.4000496666666668E-3</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G31" s="11">
+        <f t="shared" si="1"/>
         <v>18.884333333333334</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H31" s="11">
+        <f t="shared" si="2"/>
         <v>4.4000496666666669</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.5">
-      <c r="A23" s="21" t="s">
+    <row r="32" spans="1:8" ht="15.5">
+      <c r="A32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B32" s="20">
         <v>200.51333333333335</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C32" s="16">
         <v>32</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D32" s="19">
         <v>1845.5</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E32" s="24">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F32" s="11">
+        <f t="shared" si="0"/>
         <v>2.8472893333333338E-3</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G32" s="11">
+        <f t="shared" si="1"/>
         <v>20.051333333333336</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H32" s="11">
+        <f t="shared" si="2"/>
         <v>2.8472893333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.5">
-      <c r="A24" s="21" t="s">
+    <row r="33" spans="1:8" ht="15.5">
+      <c r="A33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B33" s="20">
         <v>193.75999999999996</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C33" s="16">
         <v>34</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D33" s="19">
         <v>1828.3</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E33" s="24">
         <v>2.58E-2</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F33" s="11">
+        <f t="shared" si="0"/>
         <v>4.9990079999999992E-3</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G33" s="11">
+        <f t="shared" si="1"/>
         <v>19.375999999999998</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H33" s="11">
+        <f t="shared" si="2"/>
         <v>4.999007999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.5">
-      <c r="A25" s="20" t="s">
+    <row r="34" spans="1:8" ht="15.5">
+      <c r="A34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B34" s="20">
         <v>256.06036388290249</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C34" s="16">
         <v>2</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D34" s="19">
         <v>2017.7</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E34" s="24">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F34" s="11">
+        <f t="shared" si="0"/>
         <v>4.07135978573815E-3</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G34" s="11">
+        <f t="shared" si="1"/>
         <v>25.606036388290249</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H34" s="11">
+        <f t="shared" si="2"/>
         <v>4.0713597857381503</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.5">
-      <c r="A26" s="20" t="s">
+    <row r="35" spans="1:8" ht="15.5">
+      <c r="A35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B35" s="20">
         <v>259.13028501900311</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C35" s="16">
         <v>4</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D35" s="19">
         <v>2010.7</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E35" s="24">
         <v>1.32E-2</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F35" s="11">
+        <f t="shared" si="0"/>
         <v>3.4205197622508409E-3</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G35" s="11">
+        <f t="shared" si="1"/>
         <v>25.91302850190031</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H35" s="11">
+        <f t="shared" si="2"/>
         <v>3.4205197622508408</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.5">
-      <c r="A27" s="20" t="s">
+    <row r="36" spans="1:8" ht="15.5">
+      <c r="A36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B36" s="20">
+        <v>261.43864494312385</v>
+      </c>
+      <c r="C36" s="16">
+        <v>5</v>
+      </c>
+      <c r="D36" s="19">
+        <v>2005.56143171556</v>
+      </c>
+      <c r="E36" s="24">
+        <v>1.24697220095819E-2</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2600672250025393E-3</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="1"/>
+        <v>26.143864494312385</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="2"/>
+        <v>3.2600672250025395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.5">
+      <c r="A37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="20">
         <v>267.36414825772363</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C37" s="16">
         <v>6</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D37" s="19">
         <v>2000.9440199999999</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E37" s="24">
         <v>1.18278477235704E-2</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F37" s="11">
+        <f t="shared" si="0"/>
         <v>3.1623424323344558E-3</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G37" s="11">
+        <f t="shared" si="1"/>
         <v>26.736414825772364</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H37" s="11">
+        <f t="shared" si="2"/>
         <v>3.162342432334456</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.5">
-      <c r="A28" s="20" t="s">
+    <row r="38" spans="1:8" ht="15.5">
+      <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B38" s="20">
+        <v>214.16068849956207</v>
+      </c>
+      <c r="C38" s="16">
+        <v>7</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1996.12934758546</v>
+      </c>
+      <c r="E38" s="24">
+        <v>1.1285837359475699E-2</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4169826991993952E-3</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="1"/>
+        <v>21.416068849956208</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="2"/>
+        <v>2.4169826991993952</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.5">
+      <c r="A39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="20">
         <v>259.92548762960945</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C39" s="16">
         <v>8</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D39" s="19">
         <v>1990.5</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E39" s="24">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F39" s="11">
+        <f t="shared" si="0"/>
         <v>2.3393293886664846E-3</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G39" s="11">
+        <f t="shared" si="1"/>
         <v>25.992548762960944</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H39" s="11">
+        <f t="shared" si="2"/>
         <v>2.3393293886664845</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.5">
-      <c r="A29" s="20" t="s">
+    <row r="40" spans="1:8" ht="15.5">
+      <c r="A40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B40" s="20">
+        <v>224.19235803409563</v>
+      </c>
+      <c r="C40" s="16">
+        <v>9</v>
+      </c>
+      <c r="D40" s="19">
+        <v>1985.8976767367001</v>
+      </c>
+      <c r="E40" s="24">
+        <v>1.0528114806409999E-2</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3603228841027339E-3</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="1"/>
+        <v>22.419235803409563</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="2"/>
+        <v>2.3603228841027337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.5">
+      <c r="A41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="20">
         <v>236.32042444618671</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C41" s="16">
         <v>10</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D41" s="19">
         <v>1979.4</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E41" s="24">
         <v>1.03E-2</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F41" s="11">
+        <f t="shared" si="0"/>
         <v>2.4341003717957229E-3</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G41" s="11">
+        <f t="shared" si="1"/>
         <v>23.632042444618669</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H41" s="11">
+        <f t="shared" si="2"/>
         <v>2.434100371795723</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.5">
-      <c r="A30" s="20" t="s">
+    <row r="42" spans="1:8" ht="15.5">
+      <c r="A42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B42" s="20">
+        <v>234.03145625645402</v>
+      </c>
+      <c r="C42" s="16">
+        <v>11</v>
+      </c>
+      <c r="D42" s="19">
+        <v>1974.9024233847999</v>
+      </c>
+      <c r="E42" s="24">
+        <v>1.04550081979598E-2</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4468007937416972E-3</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="1"/>
+        <v>23.403145625645401</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="2"/>
+        <v>2.4468007937416973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.5">
+      <c r="A43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="20">
         <v>269.36146373903858</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C43" s="16">
         <v>12</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D43" s="19">
         <v>1968.9</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E43" s="24">
         <v>1.14E-2</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F43" s="11">
+        <f t="shared" si="0"/>
         <v>3.0707206866250397E-3</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G43" s="11">
+        <f t="shared" si="1"/>
         <v>26.93614637390386</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H43" s="11">
+        <f t="shared" si="2"/>
         <v>3.0707206866250396</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.5">
-      <c r="A31" s="20" t="s">
+    <row r="44" spans="1:8" ht="15.5">
+      <c r="A44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B44" s="20">
+        <v>257.68227024280827</v>
+      </c>
+      <c r="C44" s="16">
+        <v>13</v>
+      </c>
+      <c r="D44" s="19">
+        <v>1962.95000223447</v>
+      </c>
+      <c r="E44" s="24">
+        <v>1.0116514006151101E-2</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6068462960481828E-3</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="1"/>
+        <v>25.768227024280826</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="2"/>
+        <v>2.6068462960481829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.5">
+      <c r="A45" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="20">
         <v>240.83904243442123</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C45" s="16">
         <v>16</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D45" s="19">
         <v>1945.1</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E45" s="24">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F45" s="11">
+        <f t="shared" si="0"/>
         <v>2.2879709031270014E-3</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G45" s="11">
+        <f t="shared" si="1"/>
         <v>24.083904243442124</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H45" s="11">
+        <f t="shared" si="2"/>
         <v>2.2879709031270012</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.5">
-      <c r="A32" s="20" t="s">
+    <row r="46" spans="1:8" ht="15.5">
+      <c r="A46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B46" s="20">
+        <v>268.86153471813424</v>
+      </c>
+      <c r="C46" s="16">
+        <v>19</v>
+      </c>
+      <c r="D46" s="19">
+        <v>1922.1471414950499</v>
+      </c>
+      <c r="E46" s="24">
+        <v>1.0138970275821901E-2</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="0"/>
+        <v>2.725979108819021E-3</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="1"/>
+        <v>26.886153471813422</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="2"/>
+        <v>2.7259791088190211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.5">
+      <c r="A47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="20">
         <v>286.08477999677461</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C47" s="16">
         <v>22</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D47" s="19">
         <v>1901.7</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E47" s="24">
         <v>1.11E-2</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F47" s="11">
+        <f t="shared" si="0"/>
         <v>3.1755410579641986E-3</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G47" s="11">
+        <f t="shared" si="1"/>
         <v>28.608477999677461</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H47" s="11">
+        <f t="shared" si="2"/>
         <v>3.1755410579641987</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.5">
-      <c r="A33" s="20" t="s">
+    <row r="48" spans="1:8" ht="15.5">
+      <c r="A48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="20">
+        <v>303.85819227908468</v>
+      </c>
+      <c r="C48" s="16">
+        <v>26</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1879.26638262815</v>
+      </c>
+      <c r="E48" s="24">
+        <v>1.2617480818152799E-2</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="0"/>
+        <v>3.8339249125199358E-3</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="1"/>
+        <v>30.385819227908467</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="2"/>
+        <v>3.8339249125199357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.5">
+      <c r="A49" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B49" s="20">
         <v>144.25406671688958</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C49" s="16">
         <v>2</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D49" s="19">
         <v>2017.8</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E49" s="24">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F49" s="11">
+        <f t="shared" si="0"/>
         <v>1.8464520539761867E-3</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G49" s="11">
+        <f t="shared" si="1"/>
         <v>14.425406671688958</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H49" s="11">
+        <f t="shared" si="2"/>
         <v>1.8464520539761868</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.5">
-      <c r="A34" s="20" t="s">
+    <row r="50" spans="1:8" ht="15.5">
+      <c r="A50" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B50" s="20">
         <v>231.66762460058786</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C50" s="16">
         <v>4</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D50" s="19">
         <v>2009.1</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E50" s="24">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F50" s="11">
+        <f t="shared" si="0"/>
         <v>2.4788435832262899E-3</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G50" s="11">
+        <f t="shared" si="1"/>
         <v>23.166762460058784</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H50" s="11">
+        <f t="shared" si="2"/>
         <v>2.4788435832262898</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.5">
-      <c r="A35" s="20" t="s">
+    <row r="51" spans="1:8" ht="15.5">
+      <c r="A51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B51" s="20">
         <v>208.30525334230811</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C51" s="16">
         <v>6</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D51" s="19">
         <v>1998.2</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E51" s="24">
         <v>1.01E-2</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F51" s="11">
+        <f t="shared" si="0"/>
         <v>2.1038830587573115E-3</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G51" s="11">
+        <f t="shared" si="1"/>
         <v>20.83052533423081</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H51" s="11">
+        <f t="shared" si="2"/>
         <v>2.1038830587573116</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.5">
-      <c r="A36" s="20" t="s">
+    <row r="52" spans="1:8" ht="15.5">
+      <c r="A52" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B52" s="20">
         <v>164.17589896851499</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C52" s="16">
         <v>8</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D52" s="19">
         <v>1987</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E52" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F52" s="11">
+        <f t="shared" si="0"/>
         <v>1.8059348886536647E-3</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G52" s="11">
+        <f t="shared" si="1"/>
         <v>16.417589896851499</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H52" s="11">
+        <f t="shared" si="2"/>
         <v>1.8059348886536646</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.5">
-      <c r="A37" s="20" t="s">
+    <row r="53" spans="1:8" ht="15.5">
+      <c r="A53" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B53" s="20">
         <v>192.70110090883205</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C53" s="16">
         <v>9</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D53" s="19">
         <v>1981.5</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E53" s="24">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F53" s="11">
+        <f t="shared" si="0"/>
         <v>2.2353327705424515E-3</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G53" s="11">
+        <f t="shared" si="1"/>
         <v>19.270110090883204</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H53" s="11">
+        <f t="shared" si="2"/>
         <v>2.2353327705424513</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.5">
-      <c r="A38" s="20" t="s">
+    <row r="54" spans="1:8" ht="15.5">
+      <c r="A54" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B54" s="20">
         <v>271.39408102619927</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C54" s="16">
         <v>11</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D54" s="19">
         <v>1970</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E54" s="24">
         <v>1.12E-2</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F54" s="11">
+        <f t="shared" si="0"/>
         <v>3.0396137074934319E-3</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G54" s="11">
+        <f t="shared" si="1"/>
         <v>27.139408102619928</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H54" s="11">
+        <f t="shared" si="2"/>
         <v>3.039613707493432</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.5">
-      <c r="A39" s="20" t="s">
+    <row r="55" spans="1:8" ht="15.5">
+      <c r="A55" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B55" s="20">
         <v>269.89676423927693</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C55" s="16">
         <v>13</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D55" s="19">
         <v>1959</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E55" s="24">
         <v>1.23E-2</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F55" s="11">
+        <f t="shared" si="0"/>
         <v>3.3197302001431064E-3</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G55" s="11">
+        <f t="shared" si="1"/>
         <v>26.989676423927694</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H55" s="11">
+        <f t="shared" si="2"/>
         <v>3.3197302001431064</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.5">
-      <c r="A40" s="20" t="s">
+    <row r="56" spans="1:8" ht="15.5">
+      <c r="A56" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B56" s="20">
         <v>221.38849441322785</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C56" s="16">
         <v>14</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D56" s="19">
         <v>1952.8</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E56" s="24">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F56" s="11">
+        <f t="shared" si="0"/>
         <v>2.5016899868694747E-3</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G56" s="11">
+        <f t="shared" si="1"/>
         <v>22.138849441322783</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H56" s="11">
+        <f t="shared" si="2"/>
         <v>2.5016899868694749</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.5">
-      <c r="A41" s="20" t="s">
+    <row r="57" spans="1:8" ht="15.5">
+      <c r="A57" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B57" s="20">
         <v>203.40883249375958</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C57" s="16">
         <v>15</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D57" s="19">
         <v>1948.2</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E57" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F57" s="11">
+        <f t="shared" si="0"/>
         <v>3.0511324874063933E-3</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G57" s="11">
+        <f t="shared" si="1"/>
         <v>20.340883249375956</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H57" s="11">
+        <f t="shared" si="2"/>
         <v>3.0511324874063934</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.5">
-      <c r="A42" s="20" t="s">
+    <row r="58" spans="1:8" ht="15.5">
+      <c r="A58" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B58" s="20">
         <v>228.95163694754601</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C58" s="16">
         <v>17</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D58" s="19">
         <v>1938.5</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E58" s="24">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F58" s="11">
+        <f t="shared" si="0"/>
         <v>3.2511132446551533E-3</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G58" s="11">
+        <f t="shared" si="1"/>
         <v>22.895163694754601</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H58" s="11">
+        <f t="shared" si="2"/>
         <v>3.2511132446551532</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.5">
-      <c r="A43" s="20" t="s">
+    <row r="59" spans="1:8" ht="15.5">
+      <c r="A59" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B59" s="20">
         <v>152.07036091823107</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C59" s="16">
         <v>19</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D59" s="19">
         <v>1927.6</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E59" s="24">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F59" s="11">
+        <f t="shared" si="0"/>
         <v>1.9312935836615344E-3</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G59" s="11">
+        <f t="shared" si="1"/>
         <v>15.207036091823108</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H59" s="11">
+        <f t="shared" si="2"/>
         <v>1.9312935836615344</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.5">
-      <c r="A44" s="20" t="s">
+    <row r="60" spans="1:8" ht="15.5">
+      <c r="A60" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B60" s="20">
         <v>194.61284391794504</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C60" s="16">
         <v>20</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D60" s="19">
         <v>1919.6</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E60" s="24">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F60" s="11">
+        <f t="shared" si="0"/>
         <v>1.8293607328286833E-3</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G60" s="11">
+        <f t="shared" si="1"/>
         <v>19.461284391794504</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H60" s="11">
+        <f t="shared" si="2"/>
         <v>1.8293607328286834</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.5">
-      <c r="A45" s="20" t="s">
+    <row r="61" spans="1:8" ht="15.5">
+      <c r="A61" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B61" s="20">
         <v>197.44140170659449</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C61" s="16">
         <v>21</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D61" s="19">
         <v>1911.7</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E61" s="24">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F61" s="11">
+        <f t="shared" si="0"/>
         <v>1.8362050358713287E-3</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G61" s="11">
+        <f t="shared" si="1"/>
         <v>19.744140170659449</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H61" s="11">
+        <f t="shared" si="2"/>
         <v>1.8362050358713287</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.5">
-      <c r="A46" s="20" t="s">
+    <row r="62" spans="1:8" ht="15.5">
+      <c r="A62" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B62" s="20">
         <v>163.2512477505565</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C62" s="16">
         <v>23</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D62" s="19">
         <v>1897.7</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E62" s="24">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F62" s="11">
+        <f t="shared" si="0"/>
         <v>1.8937144739064552E-3</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G62" s="11">
+        <f t="shared" si="1"/>
         <v>16.325124775055649</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H62" s="11">
+        <f t="shared" si="2"/>
         <v>1.8937144739064553</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.5">
-      <c r="A47" s="20" t="s">
+    <row r="63" spans="1:8" ht="15.5">
+      <c r="A63" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B63" s="20">
         <v>220.02544553568669</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C63" s="16">
         <v>25</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D63" s="19">
         <v>1889.3</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E63" s="24">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F63" s="11">
+        <f t="shared" si="0"/>
         <v>4.9945776136600881E-3</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G63" s="11">
+        <f t="shared" si="1"/>
         <v>22.002544553568669</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H63" s="11">
+        <f t="shared" si="2"/>
         <v>4.9945776136600877</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.5">
-      <c r="A48" s="20" t="s">
+    <row r="64" spans="1:8" ht="15.5">
+      <c r="A64" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B64" s="20">
         <v>201.67435814645904</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C64" s="16">
         <v>27</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D64" s="19">
         <v>1880.5</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E64" s="24">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F64" s="11">
+        <f t="shared" si="0"/>
         <v>3.3074594736019285E-3</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G64" s="11">
+        <f t="shared" si="1"/>
         <v>20.167435814645906</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H64" s="11">
+        <f t="shared" si="2"/>
         <v>3.3074594736019285</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.5">
-      <c r="A49" s="20" t="s">
+    <row r="65" spans="1:8" ht="15.5">
+      <c r="A65" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B65" s="20">
         <v>262.70948360093223</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C65" s="16">
         <v>28</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D65" s="19">
         <v>1876.1</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E65" s="24">
         <v>1.77E-2</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F65" s="11">
+        <f t="shared" si="0"/>
         <v>4.6499578597365004E-3</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G65" s="11">
+        <f t="shared" si="1"/>
         <v>26.270948360093222</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H65" s="11">
+        <f t="shared" si="2"/>
         <v>4.6499578597365003</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.5">
-      <c r="A50" s="20" t="s">
+    <row r="66" spans="1:8" ht="15.5">
+      <c r="A66" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B66" s="20">
         <v>315.8774809632535</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C66" s="16">
         <v>2</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D66" s="22">
         <v>2014.5</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E66" s="26">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F66" s="11">
+        <f t="shared" si="0"/>
         <v>4.2959337411002481E-3</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G66" s="11">
+        <f t="shared" si="1"/>
         <v>31.587748096325349</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H66" s="11">
+        <f t="shared" si="2"/>
         <v>4.2959337411002476</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.5">
-      <c r="A51" s="20" t="s">
+    <row r="67" spans="1:8" ht="15.5">
+      <c r="A67" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B67" s="20">
         <v>342.32097974676526</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C67" s="16">
         <v>3</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D67" s="22">
         <v>2009.2</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E67" s="26">
         <v>1.41E-2</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F67" s="11">
+        <f t="shared" ref="F67:F125" si="3">(B67/1000)*E67</f>
         <v>4.8267258144293907E-3</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G67" s="11">
+        <f t="shared" ref="G67:G125" si="4">B67/10</f>
         <v>34.232097974676527</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H67" s="11">
+        <f t="shared" ref="H67:H125" si="5">F67*1000</f>
         <v>4.8267258144293903</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.5">
-      <c r="A52" s="20" t="s">
+    <row r="68" spans="1:8" ht="15.5">
+      <c r="A68" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B68" s="20">
         <v>333.59084990944524</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C68" s="16">
         <v>5</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D68" s="22">
         <v>1998.3</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E68" s="26">
         <v>1.52E-2</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F68" s="11">
+        <f t="shared" si="3"/>
         <v>5.0705809186235677E-3</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G68" s="11">
+        <f t="shared" si="4"/>
         <v>33.359084990944524</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H68" s="11">
+        <f t="shared" si="5"/>
         <v>5.070580918623568</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.5">
-      <c r="A53" s="20" t="s">
+    <row r="69" spans="1:8" ht="15.5">
+      <c r="A69" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B69" s="20">
         <v>364.16249255979835</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C69" s="16">
         <v>7</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D69" s="22">
         <v>1984.5</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E69" s="26">
         <v>1.2E-2</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F69" s="11">
+        <f t="shared" si="3"/>
         <v>4.3699499107175809E-3</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G69" s="11">
+        <f t="shared" si="4"/>
         <v>36.416249255979835</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H69" s="11">
+        <f t="shared" si="5"/>
         <v>4.3699499107175805</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.5">
-      <c r="A54" s="20" t="s">
+    <row r="70" spans="1:8" ht="15.5">
+      <c r="A70" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B70" s="20">
         <v>439.79400294997515</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C70" s="16">
         <v>9</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D70" s="22">
         <v>1969.7</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E70" s="26">
         <v>1.14E-2</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F70" s="11">
+        <f t="shared" si="3"/>
         <v>5.0136516336297173E-3</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G70" s="11">
+        <f t="shared" si="4"/>
         <v>43.979400294997518</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H70" s="11">
+        <f t="shared" si="5"/>
         <v>5.013651633629717</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.5">
-      <c r="A55" s="20" t="s">
+    <row r="71" spans="1:8" ht="15.5">
+      <c r="A71" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B71" s="20">
         <v>404.54640752843079</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C71" s="16">
         <v>10</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D71" s="22">
         <v>1964</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E71" s="26">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F71" s="11">
+        <f t="shared" si="3"/>
         <v>6.3918332389492072E-3</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G71" s="11">
+        <f t="shared" si="4"/>
         <v>40.454640752843076</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H71" s="11">
+        <f t="shared" si="5"/>
         <v>6.3918332389492072</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.5">
-      <c r="A56" s="20" t="s">
+    <row r="72" spans="1:8" ht="15.5">
+      <c r="A72" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B72" s="20">
         <v>350.91577602179149</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C72" s="16">
         <v>11</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D72" s="22">
         <v>1957.4</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E72" s="26">
         <v>1.37E-2</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F72" s="11">
+        <f t="shared" si="3"/>
         <v>4.8075461314985432E-3</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G72" s="11">
+        <f t="shared" si="4"/>
         <v>35.09157760217915</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H72" s="11">
+        <f t="shared" si="5"/>
         <v>4.807546131498543</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.5">
-      <c r="A57" s="20" t="s">
+    <row r="73" spans="1:8" ht="15.5">
+      <c r="A73" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B73" s="20">
         <v>431.57119573149811</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C73" s="16">
         <v>12</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D73" s="22">
         <v>1949.1</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E73" s="26">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F73" s="11">
+        <f t="shared" si="3"/>
         <v>5.0062258704853778E-3</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G73" s="11">
+        <f t="shared" si="4"/>
         <v>43.157119573149814</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H73" s="11">
+        <f t="shared" si="5"/>
         <v>5.0062258704853777</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.5">
-      <c r="A58" s="20" t="s">
+    <row r="74" spans="1:8" ht="15.5">
+      <c r="A74" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B74" s="20">
         <v>375.08845120936223</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C74" s="16">
         <v>13</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D74" s="22">
         <v>1942.3</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E74" s="26">
         <v>1.32E-2</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F74" s="11">
+        <f t="shared" si="3"/>
         <v>4.9511675559635818E-3</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G74" s="11">
+        <f t="shared" si="4"/>
         <v>37.508845120936222</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H74" s="11">
+        <f t="shared" si="5"/>
         <v>4.9511675559635817</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.5">
-      <c r="A59" s="20" t="s">
+    <row r="75" spans="1:8" ht="15.5">
+      <c r="A75" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B75" s="20">
         <v>432.40836015467977</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C75" s="16">
         <v>14</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D75" s="22">
         <v>1933.4</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E75" s="26">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F75" s="11">
+        <f t="shared" si="3"/>
         <v>4.5402877816241374E-3</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G75" s="11">
+        <f t="shared" si="4"/>
         <v>43.240836015467977</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H75" s="11">
+        <f t="shared" si="5"/>
         <v>4.5402877816241372</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.5">
-      <c r="A60" s="20" t="s">
+    <row r="76" spans="1:8" ht="15.5">
+      <c r="A76" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B76" s="20">
         <v>419.05773964730105</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C76" s="16">
         <v>15</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D76" s="22">
         <v>1924</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E76" s="26">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F76" s="11">
+        <f t="shared" si="3"/>
         <v>4.0648600745788206E-3</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G76" s="11">
+        <f t="shared" si="4"/>
         <v>41.905773964730102</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H76" s="11">
+        <f t="shared" si="5"/>
         <v>4.0648600745788208</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.5">
-      <c r="A61" s="20" t="s">
+    <row r="77" spans="1:8" ht="15.5">
+      <c r="A77" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B77" s="20">
         <v>444.68653637146082</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C77" s="16">
         <v>16</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D77" s="22">
         <v>1915.2</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E77" s="26">
         <v>1.04E-2</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F77" s="11">
+        <f t="shared" si="3"/>
         <v>4.6247399782631928E-3</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G77" s="11">
+        <f t="shared" si="4"/>
         <v>44.468653637146083</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H77" s="11">
+        <f t="shared" si="5"/>
         <v>4.6247399782631931</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.5">
-      <c r="A62" s="20" t="s">
+    <row r="78" spans="1:8" ht="15.5">
+      <c r="A78" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B78" s="20">
         <v>435.64398688311445</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C78" s="16">
         <v>18</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D78" s="22">
         <v>1894.5</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E78" s="26">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F78" s="11">
+        <f t="shared" si="3"/>
         <v>3.7029738885064733E-3</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G78" s="11">
+        <f t="shared" si="4"/>
         <v>43.564398688311442</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H78" s="11">
+        <f t="shared" si="5"/>
         <v>3.7029738885064734</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.5">
-      <c r="A63" s="20" t="s">
+    <row r="79" spans="1:8" ht="15.5">
+      <c r="A79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B79" s="20">
         <v>345.50589773647647</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C79" s="16">
         <v>20</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D79" s="22">
         <v>1873.4</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E79" s="26">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F79" s="11">
+        <f t="shared" si="3"/>
         <v>3.0404519000809932E-3</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G79" s="11">
+        <f t="shared" si="4"/>
         <v>34.550589773647644</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H79" s="11">
+        <f t="shared" si="5"/>
         <v>3.0404519000809933</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.5">
-      <c r="A64" s="20" t="s">
+    <row r="80" spans="1:8" ht="15.5">
+      <c r="A80" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B80" s="20">
         <v>403.70556538630132</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C80" s="16">
         <v>21</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D80" s="22">
         <v>1862.1</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E80" s="26">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F80" s="11">
+        <f t="shared" si="3"/>
         <v>3.3507561927063009E-3</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G80" s="11">
+        <f t="shared" si="4"/>
         <v>40.370556538630133</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H80" s="11">
+        <f t="shared" si="5"/>
         <v>3.3507561927063008</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.5">
-      <c r="A65" s="20" t="s">
+    <row r="81" spans="1:8" ht="15.5">
+      <c r="A81" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B81" s="20">
         <v>92.673100934887131</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C81" s="16">
         <v>2</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D81" s="22">
         <v>2019.7</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E81" s="26">
         <v>1.11E-2</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F81" s="11">
+        <f t="shared" si="3"/>
         <v>1.0286714203772472E-3</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G81" s="11">
+        <f t="shared" si="4"/>
         <v>9.2673100934887138</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H81" s="11">
+        <f t="shared" si="5"/>
         <v>1.0286714203772471</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.5">
-      <c r="A66" s="20" t="s">
+    <row r="82" spans="1:8" ht="15.5">
+      <c r="A82" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B82" s="20">
+        <v>97.062847807005497</v>
+      </c>
+      <c r="C82" s="16">
+        <v>3</v>
+      </c>
+      <c r="D82" s="19">
+        <v>2017.4887574766301</v>
+      </c>
+      <c r="E82" s="24">
+        <v>1.06537665101996E-2</v>
+      </c>
+      <c r="F82" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0340849173508758E-3</v>
+      </c>
+      <c r="G82" s="11">
+        <f t="shared" si="4"/>
+        <v>9.7062847807005497</v>
+      </c>
+      <c r="H82" s="11">
+        <f t="shared" si="5"/>
+        <v>1.0340849173508757</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.5">
+      <c r="A83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="20">
+        <v>96.089297574514447</v>
+      </c>
+      <c r="C83" s="16">
+        <v>5</v>
+      </c>
+      <c r="D83" s="19">
+        <v>2012.58593988094</v>
+      </c>
+      <c r="E83" s="24">
+        <v>9.6590045507504302E-3</v>
+      </c>
+      <c r="F83" s="11">
+        <f t="shared" si="3"/>
+        <v>9.281269625506473E-4</v>
+      </c>
+      <c r="G83" s="11">
+        <f t="shared" si="4"/>
+        <v>9.6089297574514454</v>
+      </c>
+      <c r="H83" s="11">
+        <f t="shared" si="5"/>
+        <v>0.92812696255064731</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.5">
+      <c r="A84" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="20">
+        <v>97.050650455038763</v>
+      </c>
+      <c r="C84" s="16">
+        <v>7</v>
+      </c>
+      <c r="D84" s="19">
+        <v>2004.91127645558</v>
+      </c>
+      <c r="E84" s="24">
+        <v>8.6235954705003205E-3</v>
+      </c>
+      <c r="F84" s="11">
+        <f t="shared" si="3"/>
+        <v>8.3692554967318216E-4</v>
+      </c>
+      <c r="G84" s="11">
+        <f t="shared" si="4"/>
+        <v>9.7050650455038756</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="5"/>
+        <v>0.83692554967318211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.5">
+      <c r="A85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="20">
         <v>91.995853578471383</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C85" s="16">
         <v>8</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D85" s="22">
         <v>1999.8</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E85" s="26">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F85" s="11">
+        <f t="shared" si="3"/>
         <v>7.6356558470131244E-4</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G85" s="11">
+        <f t="shared" si="4"/>
         <v>9.1995853578471376</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H85" s="11">
+        <f t="shared" si="5"/>
         <v>0.76356558470131242</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.5">
-      <c r="A67" s="20" t="s">
+    <row r="86" spans="1:8" ht="15.5">
+      <c r="A86" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B86" s="20">
+        <v>85.774996678646644</v>
+      </c>
+      <c r="C86" s="16">
+        <v>9</v>
+      </c>
+      <c r="D86" s="19">
+        <v>1994.3045036129199</v>
+      </c>
+      <c r="E86" s="24">
+        <v>7.5445071074151503E-3</v>
+      </c>
+      <c r="F86" s="11">
+        <f t="shared" si="3"/>
+        <v>6.4713007208056048E-4</v>
+      </c>
+      <c r="G86" s="11">
+        <f t="shared" si="4"/>
+        <v>8.5774996678646644</v>
+      </c>
+      <c r="H86" s="11">
+        <f t="shared" si="5"/>
+        <v>0.6471300720805605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.5">
+      <c r="A87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="20">
         <v>94.694994797554045</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C87" s="16">
         <v>10</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D87" s="22">
         <v>1988.5</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E87" s="26">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F87" s="11">
+        <f t="shared" si="3"/>
         <v>6.7233446306263372E-4</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G87" s="11">
+        <f t="shared" si="4"/>
         <v>9.4694994797554042</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H87" s="11">
+        <f t="shared" si="5"/>
         <v>0.67233446306263367</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.5">
-      <c r="A68" s="20" t="s">
+    <row r="88" spans="1:8" ht="15.5">
+      <c r="A88" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B88" s="20">
         <v>83.217445818995117</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C88" s="16">
         <v>12</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D88" s="22">
         <v>1973.8</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E88" s="26">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F88" s="11">
+        <f t="shared" si="3"/>
         <v>4.909829303320712E-4</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G88" s="11">
+        <f t="shared" si="4"/>
         <v>8.3217445818995124</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H88" s="11">
+        <f t="shared" si="5"/>
         <v>0.49098293033207119</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.5">
-      <c r="A69" s="20" t="s">
+    <row r="89" spans="1:8" ht="15.5">
+      <c r="A89" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B89" s="20">
         <v>61.552048278705527</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C89" s="16">
         <v>14</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D89" s="22">
         <v>1954.9</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E89" s="26">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F89" s="11">
+        <f t="shared" si="3"/>
         <v>2.8929462690991601E-4</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G89" s="11">
+        <f t="shared" si="4"/>
         <v>6.1552048278705529</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H89" s="11">
+        <f t="shared" si="5"/>
         <v>0.28929462690991603</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.5">
-      <c r="A70" s="20" t="s">
+    <row r="90" spans="1:8" ht="15.5">
+      <c r="A90" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B90" s="20">
         <v>78.764696981226408</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C90" s="16">
         <v>16</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D90" s="22">
         <v>1932.5</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E90" s="26">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F90" s="11">
+        <f t="shared" si="3"/>
         <v>3.0718231822678295E-4</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G90" s="11">
+        <f t="shared" si="4"/>
         <v>7.8764696981226408</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H90" s="11">
+        <f t="shared" si="5"/>
         <v>0.30718231822678294</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.5">
-      <c r="A71" s="20" t="s">
+    <row r="91" spans="1:8" ht="15.5">
+      <c r="A91" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B91" s="20">
         <v>83.565152822489068</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C91" s="16">
         <v>18</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D91" s="22">
         <v>1910.5</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E91" s="26">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F91" s="11">
+        <f t="shared" si="3"/>
         <v>3.3426061128995628E-4</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G91" s="11">
+        <f t="shared" si="4"/>
         <v>8.3565152822489068</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H91" s="11">
+        <f t="shared" si="5"/>
         <v>0.33426061128995627</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.5">
-      <c r="A72" s="20" t="s">
+    <row r="92" spans="1:8" ht="15.5">
+      <c r="A92" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B92" s="20">
         <v>80.237515670838263</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C92" s="16">
         <v>20</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D92" s="22">
         <v>1890.3</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E92" s="26">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F92" s="11">
+        <f t="shared" si="3"/>
         <v>3.1292631111626924E-4</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G92" s="11">
+        <f t="shared" si="4"/>
         <v>8.023751567083826</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H92" s="11">
+        <f t="shared" si="5"/>
         <v>0.31292631111626923</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.5">
-      <c r="A73" s="20" t="s">
+    <row r="93" spans="1:8" ht="15.5">
+      <c r="A93" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="20">
+        <v>81.365198589174526</v>
+      </c>
+      <c r="C93" s="16">
+        <v>22</v>
+      </c>
+      <c r="D93" s="19">
+        <v>1871.0359304357801</v>
+      </c>
+      <c r="E93" s="24">
+        <v>3.6994915561237799E-3</v>
+      </c>
+      <c r="F93" s="11">
+        <f t="shared" si="3"/>
+        <v>3.0100986514298566E-4</v>
+      </c>
+      <c r="G93" s="11">
+        <f t="shared" si="4"/>
+        <v>8.1365198589174526</v>
+      </c>
+      <c r="H93" s="11">
+        <f t="shared" si="5"/>
+        <v>0.30100986514298567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.5">
+      <c r="A94" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="20">
+        <v>76.769639670314859</v>
+      </c>
+      <c r="C94" s="16">
+        <v>24</v>
+      </c>
+      <c r="D94" s="19">
+        <v>1851.3887925860299</v>
+      </c>
+      <c r="E94" s="24">
+        <v>3.5298635754962399E-3</v>
+      </c>
+      <c r="F94" s="11">
+        <f t="shared" si="3"/>
+        <v>2.7098635477621559E-4</v>
+      </c>
+      <c r="G94" s="11">
+        <f t="shared" si="4"/>
+        <v>7.6769639670314858</v>
+      </c>
+      <c r="H94" s="11">
+        <f t="shared" si="5"/>
+        <v>0.27098635477621558</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.5">
+      <c r="A95" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="20">
+        <v>57.758968405365707</v>
+      </c>
+      <c r="C95" s="16">
+        <v>26</v>
+      </c>
+      <c r="D95" s="19">
+        <v>1832.0271589479901</v>
+      </c>
+      <c r="E95" s="24">
+        <v>3.3335779033931202E-3</v>
+      </c>
+      <c r="F95" s="11">
+        <f t="shared" si="3"/>
+        <v>1.9254402079890847E-4</v>
+      </c>
+      <c r="G95" s="11">
+        <f t="shared" si="4"/>
+        <v>5.7758968405365705</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="5"/>
+        <v>0.19254402079890848</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.5">
+      <c r="A96" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B96" s="20">
         <v>137.99</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C96" s="16">
         <v>2</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D96" s="22">
         <v>2019.2</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E96" s="26">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F96" s="11">
+        <f t="shared" si="3"/>
         <v>7.0098920000000002E-3</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G96" s="11">
+        <f t="shared" si="4"/>
         <v>13.799000000000001</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H96" s="11">
+        <f t="shared" si="5"/>
         <v>7.0098919999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.5">
-      <c r="A74" s="20" t="s">
+    <row r="97" spans="1:8" ht="15.5">
+      <c r="A97" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B97" s="20">
         <v>142.44</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C97" s="16">
         <v>4</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D97" s="22">
         <v>2013.3</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E97" s="26">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F97" s="11">
+        <f t="shared" si="3"/>
         <v>6.9225839999999999E-3</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G97" s="11">
+        <f t="shared" si="4"/>
         <v>14.244</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H97" s="11">
+        <f t="shared" si="5"/>
         <v>6.9225839999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.5">
-      <c r="A75" s="20" t="s">
+    <row r="98" spans="1:8" ht="15.5">
+      <c r="A98" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B98" s="20">
         <v>131.31</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C98" s="16">
         <v>6</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D98" s="22">
         <v>2004.3</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E98" s="26">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F98" s="11">
+        <f t="shared" si="3"/>
         <v>5.1604830000000004E-3</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G98" s="11">
+        <f t="shared" si="4"/>
         <v>13.131</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H98" s="11">
+        <f t="shared" si="5"/>
         <v>5.1604830000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.5">
-      <c r="A76" s="20" t="s">
+    <row r="99" spans="1:8" ht="15.5">
+      <c r="A99" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B99" s="20">
         <v>132.46</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C99" s="16">
         <v>7</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D99" s="22">
         <v>1998.4</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E99" s="26">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F99" s="11">
+        <f t="shared" si="3"/>
         <v>4.6493459999999995E-3</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G99" s="11">
+        <f t="shared" si="4"/>
         <v>13.246</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H99" s="11">
+        <f t="shared" si="5"/>
         <v>4.6493459999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.5">
-      <c r="A77" s="20" t="s">
+    <row r="100" spans="1:8" ht="15.5">
+      <c r="A100" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B100" s="20">
         <v>117.43</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C100" s="16">
         <v>9</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D100" s="22">
         <v>1983.6</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E100" s="26">
         <v>2.63E-2</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F100" s="11">
+        <f t="shared" si="3"/>
         <v>3.0884090000000003E-3</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G100" s="11">
+        <f t="shared" si="4"/>
         <v>11.743</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H100" s="11">
+        <f t="shared" si="5"/>
         <v>3.0884090000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.5">
-      <c r="A78" s="20" t="s">
+    <row r="101" spans="1:8" ht="15.5">
+      <c r="A101" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B101" s="20">
         <v>110.19</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C101" s="16">
         <v>11</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D101" s="22">
         <v>1965</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E101" s="26">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F101" s="11">
+        <f t="shared" si="3"/>
         <v>2.622522E-3</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G101" s="11">
+        <f t="shared" si="4"/>
         <v>11.019</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H101" s="11">
+        <f t="shared" si="5"/>
         <v>2.622522</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.5">
-      <c r="A79" s="20" t="s">
+    <row r="102" spans="1:8" ht="15.5">
+      <c r="A102" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B102" s="20">
         <v>98.67</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C102" s="16">
         <v>12</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D102" s="22">
         <v>1955</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E102" s="26">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F102" s="11">
+        <f t="shared" si="3"/>
         <v>2.4174150000000004E-3</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G102" s="11">
+        <f t="shared" si="4"/>
         <v>9.8670000000000009</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H102" s="11">
+        <f t="shared" si="5"/>
         <v>2.4174150000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.5">
-      <c r="A80" s="20" t="s">
+    <row r="103" spans="1:8" ht="15.5">
+      <c r="A103" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B103" s="20">
         <v>108.17</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C103" s="16">
         <v>13</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D103" s="22">
         <v>1946</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E103" s="26">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F103" s="11">
+        <f t="shared" si="3"/>
         <v>2.8881390000000001E-3</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G103" s="11">
+        <f t="shared" si="4"/>
         <v>10.817</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H103" s="11">
+        <f t="shared" si="5"/>
         <v>2.8881390000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.5">
-      <c r="A81" s="20" t="s">
+    <row r="104" spans="1:8" ht="15.5">
+      <c r="A104" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="21">
+      <c r="B104" s="20">
         <v>119.77</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C104" s="16">
         <v>14</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D104" s="22">
         <v>1934.1</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E104" s="26">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F104" s="11">
+        <f t="shared" si="3"/>
         <v>2.4912160000000001E-3</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G104" s="11">
+        <f t="shared" si="4"/>
         <v>11.977</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H104" s="11">
+        <f t="shared" si="5"/>
         <v>2.4912160000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.5">
-      <c r="A82" s="20" t="s">
+    <row r="105" spans="1:8" ht="15.5">
+      <c r="A105" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="21">
+      <c r="B105" s="20">
         <v>112.77</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C105" s="16">
         <v>15</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D105" s="22">
         <v>1924.2</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E105" s="26">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F105" s="11">
+        <f t="shared" si="3"/>
         <v>2.8192500000000001E-3</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G105" s="11">
+        <f t="shared" si="4"/>
         <v>11.276999999999999</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H105" s="11">
+        <f t="shared" si="5"/>
         <v>2.8192500000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.5">
-      <c r="A83" s="20" t="s">
+    <row r="106" spans="1:8" ht="15.5">
+      <c r="A106" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="21">
+      <c r="B106" s="20">
         <v>114.21</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C106" s="16">
         <v>16</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D106" s="22">
         <v>1915.7</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E106" s="26">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F106" s="11">
+        <f t="shared" si="3"/>
         <v>3.3577739999999996E-3</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G106" s="11">
+        <f t="shared" si="4"/>
         <v>11.420999999999999</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H106" s="11">
+        <f t="shared" si="5"/>
         <v>3.3577739999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.5">
-      <c r="A84" s="20" t="s">
+    <row r="107" spans="1:8" ht="15.5">
+      <c r="A107" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B107" s="20">
         <v>118.83</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C107" s="16">
         <v>17</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D107" s="22">
         <v>1907.1</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E107" s="26">
         <v>2.98E-2</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F107" s="11">
+        <f t="shared" si="3"/>
         <v>3.541134E-3</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G107" s="11">
+        <f t="shared" si="4"/>
         <v>11.882999999999999</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H107" s="11">
+        <f t="shared" si="5"/>
         <v>3.541134</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.5">
-      <c r="A85" s="20" t="s">
+    <row r="108" spans="1:8" ht="15.5">
+      <c r="A108" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B108" s="20">
         <v>118.07</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C108" s="16">
         <v>18</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D108" s="22">
         <v>1898.2</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E108" s="26">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F108" s="11">
+        <f t="shared" si="3"/>
         <v>3.5302929999999999E-3</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G108" s="11">
+        <f t="shared" si="4"/>
         <v>11.806999999999999</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H108" s="11">
+        <f t="shared" si="5"/>
         <v>3.5302929999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.5">
-      <c r="A86" s="20" t="s">
+    <row r="109" spans="1:8" ht="15.5">
+      <c r="A109" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="21">
+      <c r="B109" s="20">
         <v>119.7</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C109" s="16">
         <v>20</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D109" s="22">
         <v>1877.4</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E109" s="26">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F109" s="11">
+        <f t="shared" si="3"/>
         <v>2.8249199999999999E-3</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G109" s="11">
+        <f t="shared" si="4"/>
         <v>11.97</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H109" s="11">
+        <f t="shared" si="5"/>
         <v>2.8249199999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.5">
-      <c r="A87" s="20" t="s">
+    <row r="110" spans="1:8" ht="15.5">
+      <c r="A110" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B110" s="20">
         <v>127.1</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C110" s="16">
         <v>22</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D110" s="22">
         <v>1854.5</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E110" s="26">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F110" s="11">
+        <f t="shared" si="3"/>
         <v>3.0885299999999995E-3</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G110" s="11">
+        <f t="shared" si="4"/>
         <v>12.709999999999999</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H110" s="11">
+        <f t="shared" si="5"/>
         <v>3.0885299999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.5">
-      <c r="A88" s="20" t="s">
+    <row r="111" spans="1:8" ht="15.5">
+      <c r="A111" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B111" s="20">
         <v>52.25</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C111" s="16">
         <v>2</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D111" s="22">
         <v>2022</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E111" s="26">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F111" s="11">
+        <f t="shared" si="3"/>
         <v>1.7765000000000001E-3</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G111" s="11">
+        <f t="shared" si="4"/>
         <v>5.2249999999999996</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H111" s="11">
+        <f t="shared" si="5"/>
         <v>1.7765000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.5">
-      <c r="A89" s="20" t="s">
+    <row r="112" spans="1:8" ht="15.5">
+      <c r="A112" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B112" s="20">
+        <v>43.76</v>
+      </c>
+      <c r="C112" s="16">
+        <v>9</v>
+      </c>
+      <c r="D112" s="19">
+        <v>2017.9476323634999</v>
+      </c>
+      <c r="E112" s="24">
+        <v>2.7972628623518202E-2</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2240822285651564E-3</v>
+      </c>
+      <c r="G112" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3759999999999994</v>
+      </c>
+      <c r="H112" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2240822285651565</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.5">
+      <c r="A113" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="20">
+        <v>37.68</v>
+      </c>
+      <c r="C113" s="16">
+        <v>15</v>
+      </c>
+      <c r="D113" s="19">
+        <v>2012.1284198682299</v>
+      </c>
+      <c r="E113" s="24">
+        <v>2.37740327771848E-2</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="3"/>
+        <v>8.9580555504432317E-4</v>
+      </c>
+      <c r="G113" s="11">
+        <f t="shared" si="4"/>
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="H113" s="11">
+        <f t="shared" si="5"/>
+        <v>0.89580555504432313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.5">
+      <c r="A114" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="20">
+        <v>49.87</v>
+      </c>
+      <c r="C114" s="16">
+        <v>21</v>
+      </c>
+      <c r="D114" s="19">
+        <v>2003.17313182882</v>
+      </c>
+      <c r="E114" s="24">
+        <v>2.00425732894359E-2</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="3"/>
+        <v>9.9952312994416826E-4</v>
+      </c>
+      <c r="G114" s="11">
+        <f t="shared" si="4"/>
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="H114" s="11">
+        <f t="shared" si="5"/>
+        <v>0.99952312994416825</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.5">
+      <c r="A115" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="20">
+        <v>40.07</v>
+      </c>
+      <c r="C115" s="16">
+        <v>24</v>
+      </c>
+      <c r="D115" s="19">
+        <v>1997.3949077734901</v>
+      </c>
+      <c r="E115" s="24">
+        <v>1.83366963444694E-2</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="3"/>
+        <v>7.3475142252288892E-4</v>
+      </c>
+      <c r="G115" s="11">
+        <f t="shared" si="4"/>
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="H115" s="11">
+        <f t="shared" si="5"/>
+        <v>0.73475142252288894</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.5">
+      <c r="A116" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="20">
+        <v>47.76</v>
+      </c>
+      <c r="C116" s="16">
+        <v>25</v>
+      </c>
+      <c r="D116" s="19">
+        <v>1995.2531028763101</v>
+      </c>
+      <c r="E116" s="24">
+        <v>1.7788750419317201E-2</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="3"/>
+        <v>8.4959072002658946E-4</v>
+      </c>
+      <c r="G116" s="11">
+        <f t="shared" si="4"/>
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="H116" s="11">
+        <f t="shared" si="5"/>
+        <v>0.84959072002658942</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.5">
+      <c r="A117" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="20">
+        <v>56.7</v>
+      </c>
+      <c r="C117" s="16">
+        <v>28</v>
+      </c>
+      <c r="D117" s="19">
+        <v>1988.1561887811499</v>
+      </c>
+      <c r="E117" s="24">
+        <v>1.6155320091688199E-2</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="3"/>
+        <v>9.1600664919872096E-4</v>
+      </c>
+      <c r="G117" s="11">
+        <f t="shared" si="4"/>
+        <v>5.67</v>
+      </c>
+      <c r="H117" s="11">
+        <f t="shared" si="5"/>
+        <v>0.91600664919872099</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.5">
+      <c r="A118" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="20">
+        <v>55.45</v>
+      </c>
+      <c r="C118" s="16">
+        <v>30</v>
+      </c>
+      <c r="D118" s="19">
+        <v>1982.8827748963899</v>
+      </c>
+      <c r="E118" s="24">
+        <v>1.5041011607292201E-2</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="3"/>
+        <v>8.3402409362435268E-4</v>
+      </c>
+      <c r="G118" s="11">
+        <f t="shared" si="4"/>
+        <v>5.5449999999999999</v>
+      </c>
+      <c r="H118" s="11">
+        <f t="shared" si="5"/>
+        <v>0.8340240936243527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.5">
+      <c r="A119" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="20">
         <v>49.09</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C119" s="16">
         <v>32</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D119" s="22">
         <v>1978.7</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E119" s="26">
         <v>1.46E-2</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F119" s="11">
+        <f t="shared" si="3"/>
         <v>7.1671400000000002E-4</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G119" s="11">
+        <f t="shared" si="4"/>
         <v>4.9090000000000007</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H119" s="11">
+        <f t="shared" si="5"/>
         <v>0.71671400000000007</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.5">
-      <c r="A90" s="20" t="s">
+    <row r="120" spans="1:8" ht="15.5">
+      <c r="A120" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B120" s="20">
+        <v>57.64</v>
+      </c>
+      <c r="C120" s="16">
+        <v>34</v>
+      </c>
+      <c r="D120" s="19">
+        <v>1971.0247381617501</v>
+      </c>
+      <c r="E120" s="24">
+        <v>1.29710770653377E-2</v>
+      </c>
+      <c r="F120" s="11">
+        <f t="shared" si="3"/>
+        <v>7.4765288204606511E-4</v>
+      </c>
+      <c r="G120" s="11">
+        <f t="shared" si="4"/>
+        <v>5.7640000000000002</v>
+      </c>
+      <c r="H120" s="11">
+        <f t="shared" si="5"/>
+        <v>0.74765288204606506</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.5">
+      <c r="A121" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="20">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C121" s="16">
+        <v>37</v>
+      </c>
+      <c r="D121" s="19">
+        <v>1960.6387603232499</v>
+      </c>
+      <c r="E121" s="24">
+        <v>1.16240547973051E-2</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="3"/>
+        <v>4.5566294805436002E-4</v>
+      </c>
+      <c r="G121" s="11">
+        <f t="shared" si="4"/>
+        <v>3.9200000000000004</v>
+      </c>
+      <c r="H121" s="11">
+        <f t="shared" si="5"/>
+        <v>0.45566294805436003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.5">
+      <c r="A122" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="20">
+        <v>45.5</v>
+      </c>
+      <c r="C122" s="16">
+        <v>42</v>
+      </c>
+      <c r="D122" s="19">
+        <v>1940.91740327153</v>
+      </c>
+      <c r="E122" s="24">
+        <v>9.7055777193853603E-3</v>
+      </c>
+      <c r="F122" s="11">
+        <f t="shared" si="3"/>
+        <v>4.416037862320339E-4</v>
+      </c>
+      <c r="G122" s="11">
+        <f t="shared" si="4"/>
+        <v>4.55</v>
+      </c>
+      <c r="H122" s="11">
+        <f t="shared" si="5"/>
+        <v>0.44160378623203389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.5">
+      <c r="A123" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="20">
         <v>71.66</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C123" s="16">
         <v>47</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D123" s="22">
         <v>1916.7</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E123" s="26">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F123" s="11">
+        <f t="shared" si="3"/>
         <v>5.5894799999999998E-4</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G123" s="11">
+        <f t="shared" si="4"/>
         <v>7.1659999999999995</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H123" s="11">
+        <f t="shared" si="5"/>
         <v>0.558948</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.5">
+      <c r="A124" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="20">
+        <v>67.33</v>
+      </c>
+      <c r="C124" s="16">
+        <v>51</v>
+      </c>
+      <c r="D124" s="19">
+        <v>1901.89495506198</v>
+      </c>
+      <c r="E124" s="24">
+        <v>8.5324617765147603E-3</v>
+      </c>
+      <c r="F124" s="11">
+        <f t="shared" si="3"/>
+        <v>5.7449065141273884E-4</v>
+      </c>
+      <c r="G124" s="11">
+        <f t="shared" si="4"/>
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="H124" s="11">
+        <f t="shared" si="5"/>
+        <v>0.57449065141273881</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.5">
+      <c r="A125" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="20">
+        <v>43.53</v>
+      </c>
+      <c r="C125" s="16">
+        <v>55</v>
+      </c>
+      <c r="D125" s="19">
+        <v>1883.4971856791201</v>
+      </c>
+      <c r="E125" s="24">
+        <v>7.9090266641611007E-3</v>
+      </c>
+      <c r="F125" s="11">
+        <f t="shared" si="3"/>
+        <v>3.442799306909327E-4</v>
+      </c>
+      <c r="G125" s="11">
+        <f t="shared" si="4"/>
+        <v>4.3529999999999998</v>
+      </c>
+      <c r="H125" s="11">
+        <f t="shared" si="5"/>
+        <v>0.34427993069093271</v>
       </c>
     </row>
   </sheetData>
@@ -7064,3509 +8343,3646 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A552DEEB-6FA5-4B42-8424-6FFD5ACD187B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="16"/>
+    <col min="2" max="2" width="15.1796875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="16"/>
+    <col min="4" max="4" width="8.7265625" style="19"/>
+    <col min="5" max="5" width="14.26953125" style="24" customWidth="1"/>
+    <col min="6" max="8" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" hidden="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:8" ht="15.5">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>281.13725539064689</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>4</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15">
+      <c r="D2" s="19">
+        <v>2019.8169151173799</v>
+      </c>
+      <c r="E2" s="24">
+        <v>2.87860600192359E-2</v>
+      </c>
+      <c r="F2" s="11">
         <f>(B2/1000)*E2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
+        <v>8.092833907318412E-3</v>
+      </c>
+      <c r="G2" s="11">
         <f>B2/10</f>
         <v>28.113725539064689</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="11">
         <f>F2*1000</f>
-        <v>0</v>
+        <v>8.0928339073184112</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>208.01185210570458</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>9</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="21">
         <v>2013</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="25">
         <v>2.58E-2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <f t="shared" ref="F3:F62" si="0">(B3/1000)*E3</f>
         <v>5.3667057843271781E-3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <f t="shared" ref="G3:G62" si="1">B3/10</f>
         <v>20.801185210570459</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="11">
         <f t="shared" ref="H3:H62" si="2">F3*1000</f>
         <v>5.3667057843271779</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.5" hidden="1">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:8" ht="15.5">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>186.44161942404213</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>11</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15">
+      <c r="D4" s="19">
+        <v>2009.12511862568</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2.5817954191076301E-2</v>
+      </c>
+      <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
+        <v>4.8135411896000017E-3</v>
+      </c>
+      <c r="G4" s="11">
         <f t="shared" si="1"/>
         <v>18.644161942404214</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8135411896000013</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>267.35650113088025</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>15</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="21">
         <v>2002.6</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="25">
         <v>2.53E-2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>6.7641194786112694E-3</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <f t="shared" si="1"/>
         <v>26.735650113088024</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <f t="shared" si="2"/>
         <v>6.7641194786112697</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.5" hidden="1">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:8" ht="15.5">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>268.37518024734266</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>17</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15">
+      <c r="D6" s="19">
+        <v>1998.21534418225</v>
+      </c>
+      <c r="E6" s="24">
+        <v>2.4903092973931399E-2</v>
+      </c>
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
+        <v>6.6833720655951716E-3</v>
+      </c>
+      <c r="G6" s="11">
         <f t="shared" si="1"/>
         <v>26.837518024734266</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.6833720655951714</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>247.77447740928415</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>19</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="21">
         <v>1995.1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="25">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>6.5908010990869586E-3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <f t="shared" si="1"/>
         <v>24.777447740928416</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <f t="shared" si="2"/>
         <v>6.590801099086959</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" hidden="1">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:8" ht="15.5">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>247.34325002800389</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>21</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15">
+      <c r="D8" s="19">
+        <v>1990.1437955430199</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2.5139081061177002E-2</v>
+      </c>
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
+        <v>6.2179820123889609E-3</v>
+      </c>
+      <c r="G8" s="11">
         <f t="shared" si="1"/>
         <v>24.734325002800389</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" hidden="1">
-      <c r="A9" s="20" t="s">
+        <v>6.2179820123889611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>258.54665211077258</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>23</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15">
+      <c r="D9" s="19">
+        <v>1985.6767272852301</v>
+      </c>
+      <c r="E9" s="24">
+        <v>2.56762598318734E-2</v>
+      </c>
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
+        <v>6.6385110182571767E-3</v>
+      </c>
+      <c r="G9" s="11">
         <f t="shared" si="1"/>
         <v>25.854665211077258</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.6385110182571765</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.5">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>278.20629783609297</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>25</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="21">
         <v>1982</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="25">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>6.3431035906629197E-3</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>27.820629783609299</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="11">
         <f t="shared" si="2"/>
         <v>6.3431035906629196</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" hidden="1">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:8" ht="15.5">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>257.23248393550261</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="10">
         <v>27</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15">
+      <c r="D11" s="19">
+        <v>1976.3739120666701</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2.7134373955111899E-2</v>
+      </c>
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
+        <v>6.9798424125082428E-3</v>
+      </c>
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>25.723248393550261</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.9798424125082432</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>239.9972334231974</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="10">
         <v>29</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="21">
         <v>1970.3</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="25">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>4.7519452217793089E-3</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>23.99972334231974</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="11">
         <f t="shared" si="2"/>
         <v>4.7519452217793088</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>218.16528444556539</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <v>35</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="21">
         <v>1958.1</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="25">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>7.8103171831512405E-3</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="11">
         <f t="shared" si="1"/>
         <v>21.816528444556539</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="11">
         <f t="shared" si="2"/>
         <v>7.8103171831512404</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5" hidden="1">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:8" ht="15.5">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>247.53336115266879</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="10">
         <v>40</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15">
+      <c r="D14" s="19">
+        <v>1947.2489566732299</v>
+      </c>
+      <c r="E14" s="24">
+        <v>3.2379697784597303E-2</v>
+      </c>
+      <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
+        <v>8.0150554257289938E-3</v>
+      </c>
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
         <v>24.75333611526688</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" hidden="1">
-      <c r="A15" s="20" t="s">
+        <v>8.0150554257289937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>214.58869952261358</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="10">
         <v>44</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15">
+      <c r="D15" s="19">
+        <v>1939.2817264529599</v>
+      </c>
+      <c r="E15" s="24">
+        <v>3.5342835972958099E-2</v>
+      </c>
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
+        <v>7.5841732088781236E-3</v>
+      </c>
+      <c r="G15" s="11">
         <f t="shared" si="1"/>
         <v>21.45886995226136</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.5" hidden="1">
-      <c r="A16" s="20" t="s">
+        <v>7.5841732088781235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.5">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>211.56575279304889</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="10">
         <v>48</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15">
+      <c r="D16" s="19">
+        <v>1932.0811575376699</v>
+      </c>
+      <c r="E16" s="24">
+        <v>3.6768104599737603E-2</v>
+      </c>
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+        <v>7.7788717284170495E-3</v>
+      </c>
+      <c r="G16" s="11">
         <f t="shared" si="1"/>
         <v>21.156575279304889</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.7788717284170499</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.5">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>225.31666666666669</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="16">
         <v>2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>2018.6</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="24">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>6.0159550000000008E-3</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="11">
         <f>B17/10</f>
         <v>22.53166666666667</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="11">
         <f t="shared" si="2"/>
         <v>6.0159550000000008</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.5">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>217.31</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="16">
         <v>4</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>2012.9</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="24">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>7.1277680000000005E-3</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="11">
         <f t="shared" si="1"/>
         <v>21.731000000000002</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <f t="shared" si="2"/>
         <v>7.1277680000000005</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.5">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>198.3066666666667</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="16">
         <v>6</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>2005.5</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="24">
         <v>2.92E-2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
         <v>5.790554666666667E-3</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="11">
         <f t="shared" si="1"/>
         <v>19.830666666666669</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="11">
         <f t="shared" si="2"/>
         <v>5.790554666666667</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.5">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>188.71</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="16">
         <v>8</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>1998.1</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="24">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>6.5104950000000007E-3</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <f t="shared" si="1"/>
         <v>18.871000000000002</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <f t="shared" si="2"/>
         <v>6.5104950000000006</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.5">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>192.87000000000006</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="16">
         <v>10</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>1989.9</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="24">
         <v>0.03</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>5.7861000000000015E-3</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f t="shared" si="1"/>
         <v>19.287000000000006</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <f t="shared" si="2"/>
         <v>5.7861000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.5">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>219.85666666666665</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="16">
         <v>12</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>1981.6</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="24">
         <v>3.15E-2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>6.9254849999999995E-3</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <f t="shared" si="1"/>
         <v>21.985666666666667</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="11">
         <f t="shared" si="2"/>
         <v>6.9254849999999992</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.5">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>203.95666666666668</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="16">
         <v>13</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <v>1976.9</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="24">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
         <v>5.6903910000000004E-3</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <f t="shared" si="1"/>
         <v>20.395666666666667</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <f t="shared" si="2"/>
         <v>5.690391</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.5">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>221.78666666666663</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="16">
         <v>15</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <v>1964.2</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="24">
         <v>1.95E-2</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
         <v>4.3248399999999991E-3</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <f t="shared" si="1"/>
         <v>22.178666666666665</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <f t="shared" si="2"/>
         <v>4.3248399999999991</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.5">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>221.43333333333331</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="16">
         <v>17</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>1952</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
         <v>5.5358333333333336E-3</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <f t="shared" si="1"/>
         <v>22.143333333333331</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="11">
         <f t="shared" si="2"/>
         <v>5.5358333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.5">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>203.48333333333332</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="16">
         <v>18</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>1945.3</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="24">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>4.598723333333333E-3</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="11">
         <f t="shared" si="1"/>
         <v>20.348333333333333</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="11">
         <f t="shared" si="2"/>
         <v>4.5987233333333331</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.5">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>228.22666666666669</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="16">
         <v>20</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>1932.8</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="24">
         <v>2.64E-2</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>6.0251840000000003E-3</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="11">
         <f t="shared" si="1"/>
         <v>22.82266666666667</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="11">
         <f t="shared" si="2"/>
         <v>6.0251840000000003</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.5">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>202.65</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="16">
         <v>22</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <v>1920.9</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="24">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="11">
         <f t="shared" si="0"/>
         <v>6.5253300000000002E-3</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="11">
         <f t="shared" si="1"/>
         <v>20.265000000000001</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="11">
         <f t="shared" si="2"/>
         <v>6.5253300000000003</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.5">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>196.16666666666666</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="16">
         <v>24</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <v>1908.9</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="24">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="11">
         <f t="shared" si="0"/>
         <v>5.6495999999999994E-3</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="11">
         <f t="shared" si="1"/>
         <v>19.616666666666667</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="11">
         <f t="shared" si="2"/>
         <v>5.6495999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.5">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>206.18666666666664</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="16">
         <v>26</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>1896.2</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="24">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="11">
         <f t="shared" si="0"/>
         <v>5.3608533333333319E-3</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="11">
         <f t="shared" si="1"/>
         <v>20.618666666666662</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="11">
         <f t="shared" si="2"/>
         <v>5.3608533333333321</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.5">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>188.84333333333333</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="16">
         <v>29</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="19">
         <v>1875.2</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="24">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="11">
         <f t="shared" si="0"/>
         <v>4.4000496666666668E-3</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="11">
         <f t="shared" si="1"/>
         <v>18.884333333333334</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="11">
         <f t="shared" si="2"/>
         <v>4.4000496666666669</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.5">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>200.51333333333335</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="16">
         <v>32</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="19">
         <v>1845.5</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="24">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="11">
         <f t="shared" si="0"/>
         <v>2.8472893333333338E-3</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="11">
         <f t="shared" si="1"/>
         <v>20.051333333333336</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="11">
         <f t="shared" si="2"/>
         <v>2.8472893333333338</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.5">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>193.75999999999996</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="16">
         <v>34</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <v>1828.3</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="24">
         <v>2.58E-2</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="11">
         <f t="shared" si="0"/>
         <v>4.9990079999999992E-3</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>19.375999999999998</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="11">
         <f t="shared" si="2"/>
         <v>4.999007999999999</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.5">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>256.06036388290249</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="16">
         <v>2</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <v>2017.7</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="24">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="11">
         <f t="shared" si="0"/>
         <v>4.07135978573815E-3</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>25.606036388290249</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="11">
         <f t="shared" si="2"/>
         <v>4.0713597857381503</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>259.13028501900311</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="16">
         <v>4</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <v>2010.7</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="24">
         <v>1.32E-2</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="11">
         <f t="shared" si="0"/>
         <v>3.4205197622508409E-3</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>25.91302850190031</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="11">
         <f t="shared" si="2"/>
         <v>3.4205197622508408</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.5" hidden="1">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:8" ht="15.5">
+      <c r="A36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>261.43864494312385</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="16">
         <v>5</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="15">
+      <c r="D36" s="19">
+        <v>2005.56143171556</v>
+      </c>
+      <c r="E36" s="24">
+        <v>1.24697220095819E-2</v>
+      </c>
+      <c r="F36" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="15">
+        <v>3.2600672250025393E-3</v>
+      </c>
+      <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>26.143864494312385</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.2600672250025395</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.5">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>267.36414825772363</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="16">
         <v>6</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <v>2000.9440199999999</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="24">
         <v>1.18278477235704E-2</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="11">
         <f t="shared" si="0"/>
         <v>3.1623424323344558E-3</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>26.736414825772364</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="11">
         <f t="shared" si="2"/>
         <v>3.162342432334456</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.5" hidden="1">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:8" ht="15.5">
+      <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>214.16068849956207</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="16">
         <v>7</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="15">
+      <c r="D38" s="19">
+        <v>1996.12934758546</v>
+      </c>
+      <c r="E38" s="24">
+        <v>1.1285837359475699E-2</v>
+      </c>
+      <c r="F38" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="15">
+        <v>2.4169826991993952E-3</v>
+      </c>
+      <c r="G38" s="11">
         <f t="shared" si="1"/>
         <v>21.416068849956208</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.4169826991993952</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.5">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>259.92548762960945</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="16">
         <v>8</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <v>1990.5</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="24">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="11">
         <f t="shared" si="0"/>
         <v>2.3393293886664846E-3</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="11">
         <f t="shared" si="1"/>
         <v>25.992548762960944</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="11">
         <f t="shared" si="2"/>
         <v>2.3393293886664845</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.5" hidden="1">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:8" ht="15.5">
+      <c r="A40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>224.19235803409563</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="16">
         <v>9</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="15">
+      <c r="D40" s="19">
+        <v>1985.8976767367001</v>
+      </c>
+      <c r="E40" s="24">
+        <v>1.0528114806409999E-2</v>
+      </c>
+      <c r="F40" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
+        <v>2.3603228841027339E-3</v>
+      </c>
+      <c r="G40" s="11">
         <f t="shared" si="1"/>
         <v>22.419235803409563</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.3603228841027337</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.5">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>236.32042444618671</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="16">
         <v>10</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="19">
         <v>1979.4</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="24">
         <v>1.03E-2</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="11">
         <f t="shared" si="0"/>
         <v>2.4341003717957229E-3</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="11">
         <f t="shared" si="1"/>
         <v>23.632042444618669</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="11">
         <f t="shared" si="2"/>
         <v>2.434100371795723</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.5" hidden="1">
-      <c r="A42" s="20" t="s">
+    <row r="42" spans="1:8" ht="15.5">
+      <c r="A42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>234.03145625645402</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="16">
         <v>11</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="15">
+      <c r="D42" s="19">
+        <v>1974.9024233847999</v>
+      </c>
+      <c r="E42" s="24">
+        <v>1.04550081979598E-2</v>
+      </c>
+      <c r="F42" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="15">
+        <v>2.4468007937416972E-3</v>
+      </c>
+      <c r="G42" s="11">
         <f t="shared" si="1"/>
         <v>23.403145625645401</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.4468007937416973</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.5">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="20">
         <v>269.36146373903858</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="16">
         <v>12</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="19">
         <v>1968.9</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="24">
         <v>1.14E-2</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="11">
         <f t="shared" si="0"/>
         <v>3.0707206866250397E-3</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="11">
         <f t="shared" si="1"/>
         <v>26.93614637390386</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="11">
         <f t="shared" si="2"/>
         <v>3.0707206866250396</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.5" hidden="1">
-      <c r="A44" s="20" t="s">
+    <row r="44" spans="1:8" ht="15.5">
+      <c r="A44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>257.68227024280827</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="16">
         <v>13</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="15">
+      <c r="D44" s="19">
+        <v>1962.95000223447</v>
+      </c>
+      <c r="E44" s="24">
+        <v>1.0116514006151101E-2</v>
+      </c>
+      <c r="F44" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="15">
+        <v>2.6068462960481828E-3</v>
+      </c>
+      <c r="G44" s="11">
         <f t="shared" si="1"/>
         <v>25.768227024280826</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.6068462960481829</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.5">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="20">
         <v>240.83904243442123</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="16">
         <v>16</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="19">
         <v>1945.1</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="24">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="11">
         <f t="shared" si="0"/>
         <v>2.2879709031270014E-3</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="11">
         <f t="shared" si="1"/>
         <v>24.083904243442124</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="11">
         <f t="shared" si="2"/>
         <v>2.2879709031270012</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.5" hidden="1">
-      <c r="A46" s="20" t="s">
+    <row r="46" spans="1:8" ht="15.5">
+      <c r="A46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>268.86153471813424</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="16">
         <v>19</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="15">
+      <c r="D46" s="19">
+        <v>1922.1471414950499</v>
+      </c>
+      <c r="E46" s="24">
+        <v>1.0138970275821901E-2</v>
+      </c>
+      <c r="F46" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="15">
+        <v>2.725979108819021E-3</v>
+      </c>
+      <c r="G46" s="11">
         <f t="shared" si="1"/>
         <v>26.886153471813422</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.7259791088190211</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.5">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="20">
         <v>286.08477999677461</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="16">
         <v>22</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="19">
         <v>1901.7</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="24">
         <v>1.11E-2</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="11">
         <f t="shared" si="0"/>
         <v>3.1755410579641986E-3</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="11">
         <f t="shared" si="1"/>
         <v>28.608477999677461</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="11">
         <f t="shared" si="2"/>
         <v>3.1755410579641987</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.5" hidden="1">
-      <c r="A48" s="20" t="s">
+    <row r="48" spans="1:8" ht="15.5">
+      <c r="A48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="20">
         <v>303.85819227908468</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="16">
         <v>26</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="15">
+      <c r="D48" s="19">
+        <v>1879.26638262815</v>
+      </c>
+      <c r="E48" s="24">
+        <v>1.2617480818152799E-2</v>
+      </c>
+      <c r="F48" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="15">
+        <v>3.8339249125199358E-3</v>
+      </c>
+      <c r="G48" s="11">
         <f t="shared" si="1"/>
         <v>30.385819227908467</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.8339249125199357</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.5">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="20">
         <v>144.25406671688958</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="16">
         <v>2</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="19">
         <v>2017.8</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="24">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="11">
         <f t="shared" si="0"/>
         <v>1.8464520539761867E-3</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="11">
         <f t="shared" si="1"/>
         <v>14.425406671688958</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="11">
         <f t="shared" si="2"/>
         <v>1.8464520539761868</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.5">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="20">
         <v>231.66762460058786</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="16">
         <v>4</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="19">
         <v>2009.1</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="24">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="11">
         <f t="shared" si="0"/>
         <v>2.4788435832262899E-3</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="11">
         <f t="shared" si="1"/>
         <v>23.166762460058784</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="11">
         <f t="shared" si="2"/>
         <v>2.4788435832262898</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.5">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="20">
         <v>208.30525334230811</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="16">
         <v>6</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="19">
         <v>1998.2</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="24">
         <v>1.01E-2</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="11">
         <f t="shared" si="0"/>
         <v>2.1038830587573115E-3</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="11">
         <f t="shared" si="1"/>
         <v>20.83052533423081</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="11">
         <f t="shared" si="2"/>
         <v>2.1038830587573116</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.5">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="20">
         <v>164.17589896851499</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="16">
         <v>8</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="19">
         <v>1987</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="11">
         <f t="shared" si="0"/>
         <v>1.8059348886536647E-3</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="11">
         <f t="shared" si="1"/>
         <v>16.417589896851499</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="11">
         <f t="shared" si="2"/>
         <v>1.8059348886536646</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.5">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="20">
         <v>192.70110090883205</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="16">
         <v>9</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="19">
         <v>1981.5</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="24">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="11">
         <f t="shared" si="0"/>
         <v>2.2353327705424515E-3</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="11">
         <f t="shared" si="1"/>
         <v>19.270110090883204</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="11">
         <f t="shared" si="2"/>
         <v>2.2353327705424513</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.5">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="20">
         <v>271.39408102619927</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="16">
         <v>11</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="19">
         <v>1970</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="24">
         <v>1.12E-2</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="11">
         <f t="shared" si="0"/>
         <v>3.0396137074934319E-3</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="11">
         <f t="shared" si="1"/>
         <v>27.139408102619928</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="11">
         <f t="shared" si="2"/>
         <v>3.039613707493432</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.5">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="20">
         <v>269.89676423927693</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="16">
         <v>13</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="19">
         <v>1959</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="24">
         <v>1.23E-2</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="11">
         <f t="shared" si="0"/>
         <v>3.3197302001431064E-3</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="11">
         <f t="shared" si="1"/>
         <v>26.989676423927694</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="11">
         <f t="shared" si="2"/>
         <v>3.3197302001431064</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.5">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="20">
         <v>221.38849441322785</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="16">
         <v>14</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="19">
         <v>1952.8</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="24">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="11">
         <f t="shared" si="0"/>
         <v>2.5016899868694747E-3</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="11">
         <f t="shared" si="1"/>
         <v>22.138849441322783</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="11">
         <f t="shared" si="2"/>
         <v>2.5016899868694749</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.5">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="20">
         <v>203.40883249375958</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="16">
         <v>15</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="19">
         <v>1948.2</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="11">
         <f t="shared" si="0"/>
         <v>3.0511324874063933E-3</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="11">
         <f t="shared" si="1"/>
         <v>20.340883249375956</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="11">
         <f t="shared" si="2"/>
         <v>3.0511324874063934</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.5">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="20">
         <v>228.95163694754601</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="16">
         <v>17</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="19">
         <v>1938.5</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="24">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="11">
         <f t="shared" si="0"/>
         <v>3.2511132446551533E-3</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="11">
         <f t="shared" si="1"/>
         <v>22.895163694754601</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="11">
         <f t="shared" si="2"/>
         <v>3.2511132446551532</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.5">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="20">
         <v>152.07036091823107</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="16">
         <v>19</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="19">
         <v>1927.6</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="24">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="11">
         <f t="shared" si="0"/>
         <v>1.9312935836615344E-3</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="11">
         <f t="shared" si="1"/>
         <v>15.207036091823108</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="11">
         <f t="shared" si="2"/>
         <v>1.9312935836615344</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.5">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="20">
         <v>194.61284391794504</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="16">
         <v>20</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="19">
         <v>1919.6</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="24">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="11">
         <f t="shared" si="0"/>
         <v>1.8293607328286833E-3</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="11">
         <f t="shared" si="1"/>
         <v>19.461284391794504</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="11">
         <f t="shared" si="2"/>
         <v>1.8293607328286834</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.5">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="20">
         <v>197.44140170659449</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="16">
         <v>21</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="19">
         <v>1911.7</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="24">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="11">
         <f t="shared" si="0"/>
         <v>1.8362050358713287E-3</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="11">
         <f t="shared" si="1"/>
         <v>19.744140170659449</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="11">
         <f t="shared" si="2"/>
         <v>1.8362050358713287</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.5">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="20">
         <v>163.2512477505565</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="16">
         <v>23</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="19">
         <v>1897.7</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="24">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="11">
         <f t="shared" si="0"/>
         <v>1.8937144739064552E-3</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="11">
         <f t="shared" si="1"/>
         <v>16.325124775055649</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="11">
         <f t="shared" si="2"/>
         <v>1.8937144739064553</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.5">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="20">
         <v>220.02544553568669</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="16">
         <v>25</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="19">
         <v>1889.3</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="24">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="11">
         <f t="shared" ref="F63:F66" si="3">(B63/1000)*E63</f>
         <v>4.9945776136600881E-3</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="11">
         <f t="shared" ref="G63:G66" si="4">B63/10</f>
         <v>22.002544553568669</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="11">
         <f t="shared" ref="H63:H66" si="5">F63*1000</f>
         <v>4.9945776136600877</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.5">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="20">
         <v>201.67435814645904</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="16">
         <v>27</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="19">
         <v>1880.5</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="24">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F64" s="11">
         <f t="shared" si="3"/>
         <v>3.3074594736019285E-3</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="11">
         <f t="shared" si="4"/>
         <v>20.167435814645906</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="11">
         <f t="shared" si="5"/>
         <v>3.3074594736019285</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.5">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="20">
         <v>262.70948360093223</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="16">
         <v>28</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="19">
         <v>1876.1</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="24">
         <v>1.77E-2</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65" s="11">
         <f t="shared" si="3"/>
         <v>4.6499578597365004E-3</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="11">
         <f t="shared" si="4"/>
         <v>26.270948360093222</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="11">
         <f t="shared" si="5"/>
         <v>4.6499578597365003</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.5">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="20">
         <v>315.8774809632535</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="16">
         <v>2</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="22">
         <v>2014.5</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="26">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F66" s="11">
         <f t="shared" si="3"/>
         <v>4.2959337411002481E-3</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="11">
         <f t="shared" si="4"/>
         <v>31.587748096325349</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="11">
         <f t="shared" si="5"/>
         <v>4.2959337411002476</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.5">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="20">
         <v>342.32097974676526</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="16">
         <v>3</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="22">
         <v>2009.2</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="26">
         <v>1.41E-2</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="11">
         <f t="shared" ref="F67:F68" si="6">(B67/1000)*E67</f>
         <v>4.8267258144293907E-3</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="11">
         <f t="shared" ref="G67:G68" si="7">B67/10</f>
         <v>34.232097974676527</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="11">
         <f t="shared" ref="H67:H68" si="8">F67*1000</f>
         <v>4.8267258144293903</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.5">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="20">
         <v>333.59084990944524</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="16">
         <v>5</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="22">
         <v>1998.3</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="26">
         <v>1.52E-2</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="11">
         <f t="shared" si="6"/>
         <v>5.0705809186235677E-3</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="11">
         <f t="shared" si="7"/>
         <v>33.359084990944524</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="11">
         <f t="shared" si="8"/>
         <v>5.070580918623568</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.5">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B69" s="20">
         <v>364.16249255979835</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="16">
         <v>7</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="22">
         <v>1984.5</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="26">
         <v>1.2E-2</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="11">
         <f t="shared" ref="F69:F80" si="9">(B69/1000)*E69</f>
         <v>4.3699499107175809E-3</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="11">
         <f t="shared" ref="G69:G80" si="10">B69/10</f>
         <v>36.416249255979835</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="11">
         <f t="shared" ref="H69:H80" si="11">F69*1000</f>
         <v>4.3699499107175805</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.5">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="20">
         <v>439.79400294997515</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="16">
         <v>9</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="22">
         <v>1969.7</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="26">
         <v>1.14E-2</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F70" s="11">
         <f t="shared" si="9"/>
         <v>5.0136516336297173E-3</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="11">
         <f t="shared" si="10"/>
         <v>43.979400294997518</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="11">
         <f t="shared" si="11"/>
         <v>5.013651633629717</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.5">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="20">
         <v>404.54640752843079</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="16">
         <v>10</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="22">
         <v>1964</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="26">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="11">
         <f t="shared" si="9"/>
         <v>6.3918332389492072E-3</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="11">
         <f t="shared" si="10"/>
         <v>40.454640752843076</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="11">
         <f t="shared" si="11"/>
         <v>6.3918332389492072</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.5">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="20">
         <v>350.91577602179149</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="16">
         <v>11</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="22">
         <v>1957.4</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="26">
         <v>1.37E-2</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F72" s="11">
         <f t="shared" si="9"/>
         <v>4.8075461314985432E-3</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="11">
         <f t="shared" si="10"/>
         <v>35.09157760217915</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="11">
         <f t="shared" si="11"/>
         <v>4.807546131498543</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.5">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="20">
         <v>431.57119573149811</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="16">
         <v>12</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="22">
         <v>1949.1</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="26">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="11">
         <f t="shared" si="9"/>
         <v>5.0062258704853778E-3</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="11">
         <f t="shared" si="10"/>
         <v>43.157119573149814</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="11">
         <f t="shared" si="11"/>
         <v>5.0062258704853777</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.5">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="20">
         <v>375.08845120936223</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="16">
         <v>13</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="22">
         <v>1942.3</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="26">
         <v>1.32E-2</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="11">
         <f t="shared" si="9"/>
         <v>4.9511675559635818E-3</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="11">
         <f t="shared" si="10"/>
         <v>37.508845120936222</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="11">
         <f t="shared" si="11"/>
         <v>4.9511675559635817</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.5">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="20">
         <v>432.40836015467977</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="16">
         <v>14</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="22">
         <v>1933.4</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="26">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="11">
         <f t="shared" si="9"/>
         <v>4.5402877816241374E-3</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="11">
         <f t="shared" si="10"/>
         <v>43.240836015467977</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="11">
         <f t="shared" si="11"/>
         <v>4.5402877816241372</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.5">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="20">
         <v>419.05773964730105</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="16">
         <v>15</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="22">
         <v>1924</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="26">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="11">
         <f t="shared" si="9"/>
         <v>4.0648600745788206E-3</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="11">
         <f t="shared" si="10"/>
         <v>41.905773964730102</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="11">
         <f t="shared" si="11"/>
         <v>4.0648600745788208</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.5">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="20">
         <v>444.68653637146082</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="16">
         <v>16</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="22">
         <v>1915.2</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="26">
         <v>1.04E-2</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="11">
         <f t="shared" si="9"/>
         <v>4.6247399782631928E-3</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="11">
         <f t="shared" si="10"/>
         <v>44.468653637146083</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="11">
         <f t="shared" si="11"/>
         <v>4.6247399782631931</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.5">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="20">
         <v>435.64398688311445</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="16">
         <v>18</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="22">
         <v>1894.5</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="26">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F78" s="11">
         <f t="shared" si="9"/>
         <v>3.7029738885064733E-3</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="11">
         <f t="shared" si="10"/>
         <v>43.564398688311442</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="11">
         <f t="shared" si="11"/>
         <v>3.7029738885064734</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.5">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="20">
         <v>345.50589773647647</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="16">
         <v>20</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="22">
         <v>1873.4</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="26">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="11">
         <f t="shared" si="9"/>
         <v>3.0404519000809932E-3</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="11">
         <f t="shared" si="10"/>
         <v>34.550589773647644</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H79" s="11">
         <f t="shared" si="11"/>
         <v>3.0404519000809933</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.5">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B80" s="20">
         <v>403.70556538630132</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="16">
         <v>21</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="22">
         <v>1862.1</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="26">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="11">
         <f t="shared" si="9"/>
         <v>3.3507561927063009E-3</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="11">
         <f t="shared" si="10"/>
         <v>40.370556538630133</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="11">
         <f t="shared" si="11"/>
         <v>3.3507561927063008</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.5">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="21">
+      <c r="B81" s="20">
         <v>92.673100934887131</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="16">
         <v>2</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="22">
         <v>2019.7</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="26">
         <v>1.11E-2</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F81" s="11">
         <f t="shared" ref="F81:F96" si="12">(B81/1000)*E81</f>
         <v>1.0286714203772472E-3</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="11">
         <f t="shared" ref="G81:G96" si="13">B81/10</f>
         <v>9.2673100934887138</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H81" s="11">
         <f t="shared" ref="H81:H96" si="14">F81*1000</f>
         <v>1.0286714203772471</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.5" hidden="1">
-      <c r="A82" s="20" t="s">
+    <row r="82" spans="1:8" ht="15.5">
+      <c r="A82" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="21">
+      <c r="B82" s="20">
         <v>97.062847807005497</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="16">
         <v>3</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="15">
+      <c r="D82" s="19">
+        <v>2017.4887574766301</v>
+      </c>
+      <c r="E82" s="24">
+        <v>1.06537665101996E-2</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="15">
+        <v>1.0340849173508758E-3</v>
+      </c>
+      <c r="G82" s="11">
         <f t="shared" si="13"/>
         <v>9.7062847807005497</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H82" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.5" hidden="1">
-      <c r="A83" s="20" t="s">
+        <v>1.0340849173508757</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.5">
+      <c r="A83" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="21">
+      <c r="B83" s="20">
         <v>96.089297574514447</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="16">
         <v>5</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="15">
+      <c r="D83" s="19">
+        <v>2012.58593988094</v>
+      </c>
+      <c r="E83" s="24">
+        <v>9.6590045507504302E-3</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="15">
+        <v>9.281269625506473E-4</v>
+      </c>
+      <c r="G83" s="11">
         <f t="shared" si="13"/>
         <v>9.6089297574514454</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.5" hidden="1">
-      <c r="A84" s="20" t="s">
+        <v>0.92812696255064731</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.5">
+      <c r="A84" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B84" s="20">
         <v>97.050650455038763</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="16">
         <v>7</v>
       </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="15">
+      <c r="D84" s="19">
+        <v>2004.91127645558</v>
+      </c>
+      <c r="E84" s="24">
+        <v>8.6235954705003205E-3</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="15">
+        <v>8.3692554967318216E-4</v>
+      </c>
+      <c r="G84" s="11">
         <f t="shared" si="13"/>
         <v>9.7050650455038756</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H84" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.83692554967318211</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.5">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B85" s="20">
         <v>91.995853578471383</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="16">
         <v>8</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="22">
         <v>1999.8</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="26">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F85" s="11">
         <f t="shared" si="12"/>
         <v>7.6356558470131244E-4</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="11">
         <f t="shared" si="13"/>
         <v>9.1995853578471376</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="11">
         <f t="shared" si="14"/>
         <v>0.76356558470131242</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.5" hidden="1">
-      <c r="A86" s="20" t="s">
+    <row r="86" spans="1:8" ht="15.5">
+      <c r="A86" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="21">
+      <c r="B86" s="20">
         <v>85.774996678646644</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="16">
         <v>9</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="15">
+      <c r="D86" s="19">
+        <v>1994.3045036129199</v>
+      </c>
+      <c r="E86" s="24">
+        <v>7.5445071074151503E-3</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="15">
+        <v>6.4713007208056048E-4</v>
+      </c>
+      <c r="G86" s="11">
         <f t="shared" si="13"/>
         <v>8.5774996678646644</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H86" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.6471300720805605</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.5">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="20">
         <v>94.694994797554045</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="16">
         <v>10</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="22">
         <v>1988.5</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="26">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F87" s="11">
         <f t="shared" si="12"/>
         <v>6.7233446306263372E-4</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G87" s="11">
         <f t="shared" si="13"/>
         <v>9.4694994797554042</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H87" s="11">
         <f t="shared" si="14"/>
         <v>0.67233446306263367</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.5">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="20">
         <v>83.217445818995117</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="16">
         <v>12</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="22">
         <v>1973.8</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="26">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F88" s="11">
         <f t="shared" si="12"/>
         <v>4.909829303320712E-4</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="11">
         <f t="shared" si="13"/>
         <v>8.3217445818995124</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="11">
         <f t="shared" si="14"/>
         <v>0.49098293033207119</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.5">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="20">
         <v>61.552048278705527</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="16">
         <v>14</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="22">
         <v>1954.9</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="26">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F89" s="11">
         <f t="shared" si="12"/>
         <v>2.8929462690991601E-4</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="11">
         <f t="shared" si="13"/>
         <v>6.1552048278705529</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H89" s="11">
         <f t="shared" si="14"/>
         <v>0.28929462690991603</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.5">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="20">
         <v>78.764696981226408</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="16">
         <v>16</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="22">
         <v>1932.5</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="26">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F90" s="11">
         <f t="shared" si="12"/>
         <v>3.0718231822678295E-4</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="11">
         <f t="shared" si="13"/>
         <v>7.8764696981226408</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H90" s="11">
         <f t="shared" si="14"/>
         <v>0.30718231822678294</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.5">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>83.565152822489068</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="16">
         <v>18</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="22">
         <v>1910.5</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="26">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F91" s="11">
         <f t="shared" si="12"/>
         <v>3.3426061128995628E-4</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="11">
         <f t="shared" si="13"/>
         <v>8.3565152822489068</v>
       </c>
-      <c r="H91" s="15">
+      <c r="H91" s="11">
         <f t="shared" si="14"/>
         <v>0.33426061128995627</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.5">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>80.237515670838263</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="16">
         <v>20</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="22">
         <v>1890.3</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="26">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F92" s="11">
         <f t="shared" si="12"/>
         <v>3.1292631111626924E-4</v>
       </c>
-      <c r="G92" s="15">
+      <c r="G92" s="11">
         <f t="shared" si="13"/>
         <v>8.023751567083826</v>
       </c>
-      <c r="H92" s="15">
+      <c r="H92" s="11">
         <f t="shared" si="14"/>
         <v>0.31292631111626923</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.5" hidden="1">
-      <c r="A93" s="20" t="s">
+    <row r="93" spans="1:8" ht="15.5">
+      <c r="A93" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="20">
         <v>81.365198589174526</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="16">
         <v>22</v>
       </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="15">
+      <c r="D93" s="19">
+        <v>1871.0359304357801</v>
+      </c>
+      <c r="E93" s="24">
+        <v>3.6994915561237799E-3</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="15">
+        <v>3.0100986514298566E-4</v>
+      </c>
+      <c r="G93" s="11">
         <f t="shared" si="13"/>
         <v>8.1365198589174526</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H93" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.5" hidden="1">
-      <c r="A94" s="20" t="s">
+        <v>0.30100986514298567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.5">
+      <c r="A94" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="20">
         <v>76.769639670314859</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="16">
         <v>24</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="15">
+      <c r="D94" s="19">
+        <v>1851.3887925860299</v>
+      </c>
+      <c r="E94" s="24">
+        <v>3.5298635754962399E-3</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="15">
+        <v>2.7098635477621559E-4</v>
+      </c>
+      <c r="G94" s="11">
         <f t="shared" si="13"/>
         <v>7.6769639670314858</v>
       </c>
-      <c r="H94" s="15">
+      <c r="H94" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.5" hidden="1">
-      <c r="A95" s="20" t="s">
+        <v>0.27098635477621558</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.5">
+      <c r="A95" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="20">
         <v>57.758968405365707</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="16">
         <v>26</v>
       </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="15">
+      <c r="D95" s="19">
+        <v>1832.0271589479901</v>
+      </c>
+      <c r="E95" s="24">
+        <v>3.3335779033931202E-3</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="15">
+        <v>1.9254402079890847E-4</v>
+      </c>
+      <c r="G95" s="11">
         <f t="shared" si="13"/>
         <v>5.7758968405365705</v>
       </c>
-      <c r="H95" s="15">
+      <c r="H95" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.19254402079890848</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.5">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="21">
+      <c r="B96" s="20">
         <v>137.99</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="16">
         <v>2</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="22">
         <v>2019.2</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="26">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="F96" s="15">
+      <c r="F96" s="11">
         <f t="shared" si="12"/>
         <v>7.0098920000000002E-3</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G96" s="11">
         <f t="shared" si="13"/>
         <v>13.799000000000001</v>
       </c>
-      <c r="H96" s="15">
+      <c r="H96" s="11">
         <f t="shared" si="14"/>
         <v>7.0098919999999998</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.5">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="21">
+      <c r="B97" s="20">
         <v>142.44</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="16">
         <v>4</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="22">
         <v>2013.3</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="26">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="F97" s="15">
+      <c r="F97" s="11">
         <f t="shared" ref="F97:F110" si="15">(B97/1000)*E97</f>
         <v>6.9225839999999999E-3</v>
       </c>
-      <c r="G97" s="15">
+      <c r="G97" s="11">
         <f t="shared" ref="G97:G110" si="16">B97/10</f>
         <v>14.244</v>
       </c>
-      <c r="H97" s="15">
+      <c r="H97" s="11">
         <f t="shared" ref="H97:H110" si="17">F97*1000</f>
         <v>6.9225839999999996</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.5">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="21">
+      <c r="B98" s="20">
         <v>131.31</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="16">
         <v>6</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="22">
         <v>2004.3</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="26">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="F98" s="15">
+      <c r="F98" s="11">
         <f t="shared" si="15"/>
         <v>5.1604830000000004E-3</v>
       </c>
-      <c r="G98" s="15">
+      <c r="G98" s="11">
         <f t="shared" si="16"/>
         <v>13.131</v>
       </c>
-      <c r="H98" s="15">
+      <c r="H98" s="11">
         <f t="shared" si="17"/>
         <v>5.1604830000000002</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.5">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="21">
+      <c r="B99" s="20">
         <v>132.46</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="16">
         <v>7</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="22">
         <v>1998.4</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="26">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="F99" s="15">
+      <c r="F99" s="11">
         <f t="shared" si="15"/>
         <v>4.6493459999999995E-3</v>
       </c>
-      <c r="G99" s="15">
+      <c r="G99" s="11">
         <f t="shared" si="16"/>
         <v>13.246</v>
       </c>
-      <c r="H99" s="15">
+      <c r="H99" s="11">
         <f t="shared" si="17"/>
         <v>4.6493459999999995</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.5">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="21">
+      <c r="B100" s="20">
         <v>117.43</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="16">
         <v>9</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="22">
         <v>1983.6</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="26">
         <v>2.63E-2</v>
       </c>
-      <c r="F100" s="15">
+      <c r="F100" s="11">
         <f t="shared" si="15"/>
         <v>3.0884090000000003E-3</v>
       </c>
-      <c r="G100" s="15">
+      <c r="G100" s="11">
         <f t="shared" si="16"/>
         <v>11.743</v>
       </c>
-      <c r="H100" s="15">
+      <c r="H100" s="11">
         <f t="shared" si="17"/>
         <v>3.0884090000000004</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.5">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="21">
+      <c r="B101" s="20">
         <v>110.19</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="16">
         <v>11</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="22">
         <v>1965</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="26">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="F101" s="15">
+      <c r="F101" s="11">
         <f t="shared" si="15"/>
         <v>2.622522E-3</v>
       </c>
-      <c r="G101" s="15">
+      <c r="G101" s="11">
         <f t="shared" si="16"/>
         <v>11.019</v>
       </c>
-      <c r="H101" s="15">
+      <c r="H101" s="11">
         <f t="shared" si="17"/>
         <v>2.622522</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.5">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="21">
+      <c r="B102" s="20">
         <v>98.67</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="16">
         <v>12</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="22">
         <v>1955</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="26">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="F102" s="15">
+      <c r="F102" s="11">
         <f t="shared" si="15"/>
         <v>2.4174150000000004E-3</v>
       </c>
-      <c r="G102" s="15">
+      <c r="G102" s="11">
         <f t="shared" si="16"/>
         <v>9.8670000000000009</v>
       </c>
-      <c r="H102" s="15">
+      <c r="H102" s="11">
         <f t="shared" si="17"/>
         <v>2.4174150000000005</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.5">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="21">
+      <c r="B103" s="20">
         <v>108.17</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="16">
         <v>13</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="22">
         <v>1946</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="26">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="F103" s="15">
+      <c r="F103" s="11">
         <f t="shared" si="15"/>
         <v>2.8881390000000001E-3</v>
       </c>
-      <c r="G103" s="15">
+      <c r="G103" s="11">
         <f t="shared" si="16"/>
         <v>10.817</v>
       </c>
-      <c r="H103" s="15">
+      <c r="H103" s="11">
         <f t="shared" si="17"/>
         <v>2.8881390000000002</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.5">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="21">
+      <c r="B104" s="20">
         <v>119.77</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="16">
         <v>14</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="22">
         <v>1934.1</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="26">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="F104" s="15">
+      <c r="F104" s="11">
         <f t="shared" si="15"/>
         <v>2.4912160000000001E-3</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="11">
         <f t="shared" si="16"/>
         <v>11.977</v>
       </c>
-      <c r="H104" s="15">
+      <c r="H104" s="11">
         <f t="shared" si="17"/>
         <v>2.4912160000000001</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.5">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="21">
+      <c r="B105" s="20">
         <v>112.77</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="16">
         <v>15</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="22">
         <v>1924.2</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="26">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105" s="11">
         <f t="shared" si="15"/>
         <v>2.8192500000000001E-3</v>
       </c>
-      <c r="G105" s="15">
+      <c r="G105" s="11">
         <f t="shared" si="16"/>
         <v>11.276999999999999</v>
       </c>
-      <c r="H105" s="15">
+      <c r="H105" s="11">
         <f t="shared" si="17"/>
         <v>2.8192500000000003</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.5">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="21">
+      <c r="B106" s="20">
         <v>114.21</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="16">
         <v>16</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="22">
         <v>1915.7</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="26">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="F106" s="15">
+      <c r="F106" s="11">
         <f t="shared" si="15"/>
         <v>3.3577739999999996E-3</v>
       </c>
-      <c r="G106" s="15">
+      <c r="G106" s="11">
         <f t="shared" si="16"/>
         <v>11.420999999999999</v>
       </c>
-      <c r="H106" s="15">
+      <c r="H106" s="11">
         <f t="shared" si="17"/>
         <v>3.3577739999999996</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.5">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="21">
+      <c r="B107" s="20">
         <v>118.83</v>
       </c>
-      <c r="C107" s="21">
+      <c r="C107" s="16">
         <v>17</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="22">
         <v>1907.1</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="26">
         <v>2.98E-2</v>
       </c>
-      <c r="F107" s="15">
+      <c r="F107" s="11">
         <f t="shared" si="15"/>
         <v>3.541134E-3</v>
       </c>
-      <c r="G107" s="15">
+      <c r="G107" s="11">
         <f t="shared" si="16"/>
         <v>11.882999999999999</v>
       </c>
-      <c r="H107" s="15">
+      <c r="H107" s="11">
         <f t="shared" si="17"/>
         <v>3.541134</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.5">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="21">
+      <c r="B108" s="20">
         <v>118.07</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="16">
         <v>18</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="22">
         <v>1898.2</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="26">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="F108" s="15">
+      <c r="F108" s="11">
         <f t="shared" si="15"/>
         <v>3.5302929999999999E-3</v>
       </c>
-      <c r="G108" s="15">
+      <c r="G108" s="11">
         <f t="shared" si="16"/>
         <v>11.806999999999999</v>
       </c>
-      <c r="H108" s="15">
+      <c r="H108" s="11">
         <f t="shared" si="17"/>
         <v>3.5302929999999999</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.5">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="21">
+      <c r="B109" s="20">
         <v>119.7</v>
       </c>
-      <c r="C109" s="21">
+      <c r="C109" s="16">
         <v>20</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="22">
         <v>1877.4</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="26">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="F109" s="15">
+      <c r="F109" s="11">
         <f t="shared" si="15"/>
         <v>2.8249199999999999E-3</v>
       </c>
-      <c r="G109" s="15">
+      <c r="G109" s="11">
         <f t="shared" si="16"/>
         <v>11.97</v>
       </c>
-      <c r="H109" s="15">
+      <c r="H109" s="11">
         <f t="shared" si="17"/>
         <v>2.8249199999999997</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.5">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="21">
+      <c r="B110" s="20">
         <v>127.1</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="16">
         <v>22</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="22">
         <v>1854.5</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="26">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="F110" s="15">
+      <c r="F110" s="11">
         <f t="shared" si="15"/>
         <v>3.0885299999999995E-3</v>
       </c>
-      <c r="G110" s="15">
+      <c r="G110" s="11">
         <f t="shared" si="16"/>
         <v>12.709999999999999</v>
       </c>
-      <c r="H110" s="15">
+      <c r="H110" s="11">
         <f t="shared" si="17"/>
         <v>3.0885299999999996</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.5">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="21">
+      <c r="B111" s="20">
         <v>52.25</v>
       </c>
-      <c r="C111" s="21">
+      <c r="C111" s="16">
         <v>2</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="22">
         <v>2022</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="26">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F111" s="15">
+      <c r="F111" s="11">
         <f t="shared" ref="F111:F125" si="18">(B111/1000)*E111</f>
         <v>1.7765000000000001E-3</v>
       </c>
-      <c r="G111" s="15">
+      <c r="G111" s="11">
         <f t="shared" ref="G111:G125" si="19">B111/10</f>
         <v>5.2249999999999996</v>
       </c>
-      <c r="H111" s="15">
+      <c r="H111" s="11">
         <f t="shared" ref="H111:H125" si="20">F111*1000</f>
         <v>1.7765000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.5" hidden="1">
-      <c r="A112" s="20" t="s">
+    <row r="112" spans="1:8" ht="15.5">
+      <c r="A112" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="21">
+      <c r="B112" s="20">
         <v>43.76</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="16">
         <v>9</v>
       </c>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="15">
+      <c r="D112" s="19">
+        <v>2017.9476323634999</v>
+      </c>
+      <c r="E112" s="24">
+        <v>2.7972628623518202E-2</v>
+      </c>
+      <c r="F112" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="15">
+        <v>1.2240822285651564E-3</v>
+      </c>
+      <c r="G112" s="11">
         <f t="shared" si="19"/>
         <v>4.3759999999999994</v>
       </c>
-      <c r="H112" s="15">
+      <c r="H112" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.5" hidden="1">
-      <c r="A113" s="20" t="s">
+        <v>1.2240822285651565</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.5">
+      <c r="A113" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="21">
+      <c r="B113" s="20">
         <v>37.68</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="16">
         <v>15</v>
       </c>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="15">
+      <c r="D113" s="19">
+        <v>2012.1284198682299</v>
+      </c>
+      <c r="E113" s="24">
+        <v>2.37740327771848E-2</v>
+      </c>
+      <c r="F113" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="15">
+        <v>8.9580555504432317E-4</v>
+      </c>
+      <c r="G113" s="11">
         <f t="shared" si="19"/>
         <v>3.7679999999999998</v>
       </c>
-      <c r="H113" s="15">
+      <c r="H113" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.5" hidden="1">
-      <c r="A114" s="20" t="s">
+        <v>0.89580555504432313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.5">
+      <c r="A114" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="21">
+      <c r="B114" s="20">
         <v>49.87</v>
       </c>
-      <c r="C114" s="21">
+      <c r="C114" s="16">
         <v>21</v>
       </c>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="15">
+      <c r="D114" s="19">
+        <v>2003.17313182882</v>
+      </c>
+      <c r="E114" s="24">
+        <v>2.00425732894359E-2</v>
+      </c>
+      <c r="F114" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="15">
+        <v>9.9952312994416826E-4</v>
+      </c>
+      <c r="G114" s="11">
         <f t="shared" si="19"/>
         <v>4.9870000000000001</v>
       </c>
-      <c r="H114" s="15">
+      <c r="H114" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.5" hidden="1">
-      <c r="A115" s="20" t="s">
+        <v>0.99952312994416825</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.5">
+      <c r="A115" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="21">
+      <c r="B115" s="20">
         <v>40.07</v>
       </c>
-      <c r="C115" s="21">
+      <c r="C115" s="16">
         <v>24</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="15">
+      <c r="D115" s="19">
+        <v>1997.3949077734901</v>
+      </c>
+      <c r="E115" s="24">
+        <v>1.83366963444694E-2</v>
+      </c>
+      <c r="F115" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="15">
+        <v>7.3475142252288892E-4</v>
+      </c>
+      <c r="G115" s="11">
         <f t="shared" si="19"/>
         <v>4.0069999999999997</v>
       </c>
-      <c r="H115" s="15">
+      <c r="H115" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.5" hidden="1">
-      <c r="A116" s="20" t="s">
+        <v>0.73475142252288894</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.5">
+      <c r="A116" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="21">
+      <c r="B116" s="20">
         <v>47.76</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="16">
         <v>25</v>
       </c>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="15">
+      <c r="D116" s="19">
+        <v>1995.2531028763101</v>
+      </c>
+      <c r="E116" s="24">
+        <v>1.7788750419317201E-2</v>
+      </c>
+      <c r="F116" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="15">
+        <v>8.4959072002658946E-4</v>
+      </c>
+      <c r="G116" s="11">
         <f t="shared" si="19"/>
         <v>4.7759999999999998</v>
       </c>
-      <c r="H116" s="15">
+      <c r="H116" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.5" hidden="1">
-      <c r="A117" s="20" t="s">
+        <v>0.84959072002658942</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.5">
+      <c r="A117" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="21">
+      <c r="B117" s="20">
         <v>56.7</v>
       </c>
-      <c r="C117" s="21">
+      <c r="C117" s="16">
         <v>28</v>
       </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="15">
+      <c r="D117" s="19">
+        <v>1988.1561887811499</v>
+      </c>
+      <c r="E117" s="24">
+        <v>1.6155320091688199E-2</v>
+      </c>
+      <c r="F117" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="15">
+        <v>9.1600664919872096E-4</v>
+      </c>
+      <c r="G117" s="11">
         <f t="shared" si="19"/>
         <v>5.67</v>
       </c>
-      <c r="H117" s="15">
+      <c r="H117" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.5" hidden="1">
-      <c r="A118" s="20" t="s">
+        <v>0.91600664919872099</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.5">
+      <c r="A118" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="21">
+      <c r="B118" s="20">
         <v>55.45</v>
       </c>
-      <c r="C118" s="21">
+      <c r="C118" s="16">
         <v>30</v>
       </c>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="15">
+      <c r="D118" s="19">
+        <v>1982.8827748963899</v>
+      </c>
+      <c r="E118" s="24">
+        <v>1.5041011607292201E-2</v>
+      </c>
+      <c r="F118" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="15">
+        <v>8.3402409362435268E-4</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="19"/>
         <v>5.5449999999999999</v>
       </c>
-      <c r="H118" s="15">
+      <c r="H118" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8340240936243527</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.5">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="21">
+      <c r="B119" s="20">
         <v>49.09</v>
       </c>
-      <c r="C119" s="21">
+      <c r="C119" s="16">
         <v>32</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="22">
         <v>1978.7</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="26">
         <v>1.46E-2</v>
       </c>
-      <c r="F119" s="15">
+      <c r="F119" s="11">
         <f t="shared" si="18"/>
         <v>7.1671400000000002E-4</v>
       </c>
-      <c r="G119" s="15">
+      <c r="G119" s="11">
         <f t="shared" si="19"/>
         <v>4.9090000000000007</v>
       </c>
-      <c r="H119" s="15">
+      <c r="H119" s="11">
         <f t="shared" si="20"/>
         <v>0.71671400000000007</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.5" hidden="1">
-      <c r="A120" s="20" t="s">
+    <row r="120" spans="1:8" ht="15.5">
+      <c r="A120" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B120" s="21">
+      <c r="B120" s="20">
         <v>57.64</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C120" s="16">
         <v>34</v>
       </c>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="15">
+      <c r="D120" s="19">
+        <v>1971.0247381617501</v>
+      </c>
+      <c r="E120" s="24">
+        <v>1.29710770653377E-2</v>
+      </c>
+      <c r="F120" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="15">
+        <v>7.4765288204606511E-4</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="19"/>
         <v>5.7640000000000002</v>
       </c>
-      <c r="H120" s="15">
+      <c r="H120" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.5" hidden="1">
-      <c r="A121" s="20" t="s">
+        <v>0.74765288204606506</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.5">
+      <c r="A121" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="21">
+      <c r="B121" s="20">
         <v>39.200000000000003</v>
       </c>
-      <c r="C121" s="21">
+      <c r="C121" s="16">
         <v>37</v>
       </c>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="15">
+      <c r="D121" s="19">
+        <v>1960.6387603232499</v>
+      </c>
+      <c r="E121" s="24">
+        <v>1.16240547973051E-2</v>
+      </c>
+      <c r="F121" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="15">
+        <v>4.5566294805436002E-4</v>
+      </c>
+      <c r="G121" s="11">
         <f t="shared" si="19"/>
         <v>3.9200000000000004</v>
       </c>
-      <c r="H121" s="15">
+      <c r="H121" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.5" hidden="1">
-      <c r="A122" s="20" t="s">
+        <v>0.45566294805436003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.5">
+      <c r="A122" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="21">
+      <c r="B122" s="20">
         <v>45.5</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="16">
         <v>42</v>
       </c>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="15">
+      <c r="D122" s="19">
+        <v>1940.91740327153</v>
+      </c>
+      <c r="E122" s="24">
+        <v>9.7055777193853603E-3</v>
+      </c>
+      <c r="F122" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="15">
+        <v>4.416037862320339E-4</v>
+      </c>
+      <c r="G122" s="11">
         <f t="shared" si="19"/>
         <v>4.55</v>
       </c>
-      <c r="H122" s="15">
+      <c r="H122" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.44160378623203389</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.5">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B123" s="21">
+      <c r="B123" s="20">
         <v>71.66</v>
       </c>
-      <c r="C123" s="21">
+      <c r="C123" s="16">
         <v>47</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="22">
         <v>1916.7</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="26">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="F123" s="15">
+      <c r="F123" s="11">
         <f t="shared" si="18"/>
         <v>5.5894799999999998E-4</v>
       </c>
-      <c r="G123" s="15">
+      <c r="G123" s="11">
         <f t="shared" si="19"/>
         <v>7.1659999999999995</v>
       </c>
-      <c r="H123" s="15">
+      <c r="H123" s="11">
         <f t="shared" si="20"/>
         <v>0.558948</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.5" hidden="1">
-      <c r="A124" s="20" t="s">
+    <row r="124" spans="1:8" ht="15.5">
+      <c r="A124" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B124" s="21">
+      <c r="B124" s="20">
         <v>67.33</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C124" s="16">
         <v>51</v>
       </c>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="15">
+      <c r="D124" s="19">
+        <v>1901.89495506198</v>
+      </c>
+      <c r="E124" s="24">
+        <v>8.5324617765147603E-3</v>
+      </c>
+      <c r="F124" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="15">
+        <v>5.7449065141273884E-4</v>
+      </c>
+      <c r="G124" s="11">
         <f t="shared" si="19"/>
         <v>6.7329999999999997</v>
       </c>
-      <c r="H124" s="15">
+      <c r="H124" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.5" hidden="1">
-      <c r="A125" s="20" t="s">
+        <v>0.57449065141273881</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.5">
+      <c r="A125" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B125" s="21">
+      <c r="B125" s="20">
         <v>43.53</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="16">
         <v>55</v>
       </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="15">
+      <c r="D125" s="19">
+        <v>1883.4971856791201</v>
+      </c>
+      <c r="E125" s="24">
+        <v>7.9090266641611007E-3</v>
+      </c>
+      <c r="F125" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="15">
+        <v>3.442799306909327E-4</v>
+      </c>
+      <c r="G125" s="11">
         <f t="shared" si="19"/>
         <v>4.3529999999999998</v>
       </c>
-      <c r="H125" s="15">
+      <c r="H125" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.34427993069093271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H125" xr:uid="{A552DEEB-6FA5-4B42-8424-6FFD5ACD187B}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H125" xr:uid="{A552DEEB-6FA5-4B42-8424-6FFD5ACD187B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -10617,12 +12033,12 @@
       <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:9" ht="14.25" customHeight="1">
-      <c r="B5" s="22"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:9" ht="14.25" customHeight="1"/>
